--- a/FINDERRORS_Projeto_de_Testes.xlsx
+++ b/FINDERRORS_Projeto_de_Testes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Washington\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diógenes\Documents\GitHub\finderrors\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7620" tabRatio="654"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7620" tabRatio="654" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -2102,9 +2102,6 @@
   </si>
   <si>
     <t>CT075</t>
-  </si>
-  <si>
-    <t>Verificarse o software não apresenta a opção de girar o dado em casas especiais</t>
   </si>
   <si>
     <t>Entrar e uma casa especial e não encontrar a opção girar dado</t>
@@ -2451,6 +2448,9 @@
   </si>
   <si>
     <t>&lt;versão 3.0&gt;</t>
+  </si>
+  <si>
+    <t>Verificar se o software não apresenta a opção de girar o dado em casas especiais</t>
   </si>
 </sst>
 </file>
@@ -3923,111 +3923,151 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4062,44 +4102,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4111,8 +4114,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4123,6 +4147,18 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4141,59 +4177,137 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="5" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="6" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="7" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="8" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="9" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="4" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4202,120 +4316,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="4" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="5" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="8" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="9" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="6" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="7" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10356,7 +10356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -10542,7 +10542,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="11"/>
@@ -10887,7 +10887,7 @@
         <v>41956</v>
       </c>
       <c r="C15" s="180" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D15" s="180" t="s">
         <v>3</v>
@@ -10898,7 +10898,7 @@
         <v>41956</v>
       </c>
       <c r="C16" s="182" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D16" s="182" t="s">
         <v>646</v>
@@ -10992,23 +10992,23 @@
       <c r="A1" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="191" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="187"/>
       <c r="D1" s="187"/>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="204" t="s">
+      <c r="F1" s="209" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="187"/>
       <c r="H1" s="187"/>
       <c r="I1" s="187"/>
       <c r="J1" s="187"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="K1" s="207"/>
+      <c r="L1" s="208" t="s">
         <v>23</v>
       </c>
       <c r="M1" s="187"/>
@@ -11021,38 +11021,38 @@
       <c r="A2" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="211"/>
+      <c r="B2" s="190"/>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
       <c r="E2" s="187"/>
-      <c r="F2" s="205" t="s">
+      <c r="F2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="205" t="s">
+      <c r="G2" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="205" t="s">
+      <c r="H2" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="205" t="s">
+      <c r="I2" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="205" t="s">
+      <c r="J2" s="210" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="187"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
       <c r="P2" s="27"/>
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="214"/>
+      <c r="B3" s="194"/>
       <c r="C3" s="187"/>
       <c r="D3" s="187"/>
       <c r="E3" s="187"/>
@@ -11070,7 +11070,7 @@
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="216"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="187"/>
       <c r="C4" s="187"/>
       <c r="D4" s="187"/>
@@ -11137,19 +11137,19 @@
       <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="192" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="39"/>
@@ -11224,16 +11224,16 @@
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="198" t="s">
+      <c r="D11" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="198" t="s">
+      <c r="E11" s="192" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="39"/>
@@ -11246,7 +11246,7 @@
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
-      <c r="P11" s="201"/>
+      <c r="P11" s="206"/>
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11309,19 +11309,19 @@
       <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="198" t="s">
+      <c r="B15" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="198" t="s">
+      <c r="C15" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="206" t="s">
+      <c r="D15" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="212" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="39"/>
@@ -11395,19 +11395,19 @@
       <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="198" t="s">
+      <c r="C19" s="192" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="198" t="s">
+      <c r="D19" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="198" t="s">
+      <c r="E19" s="192" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="39"/>
@@ -11481,19 +11481,19 @@
       <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="198" t="s">
+      <c r="B23" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="198" t="s">
+      <c r="C23" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="198" t="s">
+      <c r="D23" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="198" t="s">
+      <c r="E23" s="192" t="s">
         <v>60</v>
       </c>
       <c r="F23" s="39"/>
@@ -11567,19 +11567,19 @@
       <c r="Q26" s="49"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="213" t="s">
+      <c r="A27" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="198" t="s">
+      <c r="B27" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="198" t="s">
+      <c r="C27" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="206" t="s">
+      <c r="D27" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="198" t="s">
+      <c r="E27" s="192" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="39"/>
@@ -11653,19 +11653,19 @@
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="190" t="s">
+      <c r="A31" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="199" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="209" t="s">
+      <c r="D31" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="191" t="s">
+      <c r="E31" s="199" t="s">
         <v>70</v>
       </c>
       <c r="F31" s="55"/>
@@ -11739,19 +11739,19 @@
       <c r="Q34" s="73"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="210" t="s">
+      <c r="A35" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="191" t="s">
+      <c r="C35" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="191" t="s">
+      <c r="D35" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="191" t="s">
+      <c r="E35" s="199" t="s">
         <v>75</v>
       </c>
       <c r="F35" s="55" t="s">
@@ -11831,19 +11831,19 @@
       <c r="Q38" s="73"/>
     </row>
     <row r="39" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="190" t="s">
+      <c r="A39" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="191" t="s">
+      <c r="B39" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="191" t="s">
+      <c r="C39" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="191" t="s">
+      <c r="D39" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="191" t="s">
+      <c r="E39" s="199" t="s">
         <v>83</v>
       </c>
       <c r="F39" s="75" t="s">
@@ -11923,19 +11923,19 @@
       <c r="Q42" s="73"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="191" t="s">
+      <c r="D43" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="191" t="s">
+      <c r="E43" s="199" t="s">
         <v>91</v>
       </c>
       <c r="F43" s="55"/>
@@ -12013,19 +12013,19 @@
       <c r="Q46" s="73"/>
     </row>
     <row r="47" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="190" t="s">
+      <c r="A47" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="196" t="s">
+      <c r="B47" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="196" t="s">
+      <c r="C47" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="215" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="191" t="s">
+      <c r="E47" s="199" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="60"/>
@@ -12099,19 +12099,19 @@
       <c r="Q50" s="73"/>
     </row>
     <row r="51" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="190" t="s">
+      <c r="A51" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="191" t="s">
+      <c r="B51" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="191" t="s">
+      <c r="C51" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="191" t="s">
+      <c r="D51" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="191" t="s">
+      <c r="E51" s="199" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="55"/>
@@ -12191,19 +12191,19 @@
       <c r="Q54" s="73"/>
     </row>
     <row r="55" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="190" t="s">
+      <c r="A55" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="191" t="s">
+      <c r="B55" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="191" t="s">
+      <c r="C55" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="191" t="s">
+      <c r="D55" s="199" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="192" t="s">
+      <c r="E55" s="202" t="s">
         <v>111</v>
       </c>
       <c r="F55" s="60"/>
@@ -12277,19 +12277,19 @@
       <c r="Q58" s="73"/>
     </row>
     <row r="59" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="190" t="s">
+      <c r="A59" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="191" t="s">
+      <c r="B59" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="191" t="s">
+      <c r="C59" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="192" t="s">
+      <c r="D59" s="202" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="192" t="s">
+      <c r="E59" s="202" t="s">
         <v>116</v>
       </c>
       <c r="F59" s="78"/>
@@ -12369,19 +12369,19 @@
       <c r="Q62" s="73"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="190" t="s">
+      <c r="A63" s="197" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="208" t="s">
+      <c r="C63" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="192" t="s">
+      <c r="D63" s="202" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="192" t="s">
+      <c r="E63" s="202" t="s">
         <v>123</v>
       </c>
       <c r="F63" s="60"/>
@@ -12455,19 +12455,19 @@
       <c r="Q66" s="73"/>
     </row>
     <row r="67" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="190" t="s">
+      <c r="A67" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="191" t="s">
+      <c r="B67" s="199" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="191" t="s">
+      <c r="C67" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="192" t="s">
+      <c r="D67" s="202" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="191" t="s">
+      <c r="E67" s="199" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="60"/>
@@ -12541,19 +12541,19 @@
       <c r="Q70" s="73"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="190" t="s">
+      <c r="A71" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="191" t="s">
+      <c r="B71" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="191" t="s">
+      <c r="C71" s="199" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="192" t="s">
+      <c r="D71" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="191" t="s">
+      <c r="E71" s="199" t="s">
         <v>133</v>
       </c>
       <c r="F71" s="55"/>
@@ -12629,19 +12629,19 @@
       <c r="Q74" s="73"/>
     </row>
     <row r="75" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="190" t="s">
+      <c r="A75" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="191" t="s">
+      <c r="B75" s="199" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="191" t="s">
+      <c r="C75" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="192" t="s">
+      <c r="D75" s="202" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="191" t="s">
+      <c r="E75" s="199" t="s">
         <v>139</v>
       </c>
       <c r="F75" s="55"/>
@@ -12719,19 +12719,19 @@
       <c r="Q78" s="73"/>
     </row>
     <row r="79" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="190" t="s">
+      <c r="A79" s="197" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="191" t="s">
+      <c r="B79" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="191" t="s">
+      <c r="C79" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="194" t="s">
+      <c r="D79" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="E79" s="192" t="s">
+      <c r="E79" s="202" t="s">
         <v>146</v>
       </c>
       <c r="F79" s="60"/>
@@ -12805,19 +12805,19 @@
       <c r="Q82" s="73"/>
     </row>
     <row r="83" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="190" t="s">
+      <c r="A83" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="191" t="s">
+      <c r="B83" s="199" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="191" t="s">
+      <c r="C83" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="191" t="s">
+      <c r="D83" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="192" t="s">
+      <c r="E83" s="202" t="s">
         <v>151</v>
       </c>
       <c r="F83" s="78"/>
@@ -12893,19 +12893,19 @@
       <c r="Q86" s="73"/>
     </row>
     <row r="87" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="190" t="s">
+      <c r="A87" s="197" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="191" t="s">
+      <c r="B87" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="191" t="s">
+      <c r="C87" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="191" t="s">
+      <c r="D87" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="E87" s="192" t="s">
+      <c r="E87" s="202" t="s">
         <v>157</v>
       </c>
       <c r="F87" s="60"/>
@@ -12981,19 +12981,19 @@
       <c r="Q90" s="73"/>
     </row>
     <row r="91" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="190" t="s">
+      <c r="A91" s="197" t="s">
         <v>159</v>
       </c>
-      <c r="B91" s="191" t="s">
+      <c r="B91" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="191" t="s">
+      <c r="C91" s="199" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="191" t="s">
+      <c r="D91" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="E91" s="192" t="s">
+      <c r="E91" s="202" t="s">
         <v>163</v>
       </c>
       <c r="F91" s="60"/>
@@ -13069,19 +13069,19 @@
       <c r="Q94" s="73"/>
     </row>
     <row r="95" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="190" t="s">
+      <c r="A95" s="197" t="s">
         <v>165</v>
       </c>
-      <c r="B95" s="191" t="s">
+      <c r="B95" s="199" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="191" t="s">
+      <c r="C95" s="199" t="s">
         <v>167</v>
       </c>
-      <c r="D95" s="191" t="s">
+      <c r="D95" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="E95" s="192" t="s">
+      <c r="E95" s="202" t="s">
         <v>169</v>
       </c>
       <c r="F95" s="60"/>
@@ -13161,19 +13161,19 @@
       <c r="Q98" s="73"/>
     </row>
     <row r="99" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="190" t="s">
+      <c r="A99" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="B99" s="191" t="s">
+      <c r="B99" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="191" t="s">
+      <c r="C99" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="191" t="s">
+      <c r="D99" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="E99" s="192" t="s">
+      <c r="E99" s="202" t="s">
         <v>177</v>
       </c>
       <c r="F99" s="60"/>
@@ -13249,19 +13249,19 @@
       <c r="Q102" s="73"/>
     </row>
     <row r="103" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="190" t="s">
+      <c r="A103" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="191" t="s">
+      <c r="B103" s="199" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="191" t="s">
+      <c r="C103" s="199" t="s">
         <v>181</v>
       </c>
-      <c r="D103" s="191" t="s">
+      <c r="D103" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="E103" s="192" t="s">
+      <c r="E103" s="202" t="s">
         <v>183</v>
       </c>
       <c r="F103" s="60"/>
@@ -13341,19 +13341,19 @@
       <c r="Q106" s="73"/>
     </row>
     <row r="107" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="190" t="s">
+      <c r="A107" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="191" t="s">
+      <c r="B107" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="191" t="s">
+      <c r="C107" s="199" t="s">
         <v>189</v>
       </c>
-      <c r="D107" s="191" t="s">
+      <c r="D107" s="199" t="s">
         <v>190</v>
       </c>
-      <c r="E107" s="192" t="s">
+      <c r="E107" s="202" t="s">
         <v>191</v>
       </c>
       <c r="F107" s="60"/>
@@ -13429,19 +13429,19 @@
       <c r="Q110" s="73"/>
     </row>
     <row r="111" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="190" t="s">
+      <c r="A111" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="B111" s="191" t="s">
+      <c r="B111" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="191" t="s">
+      <c r="C111" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="D111" s="193" t="s">
+      <c r="D111" s="216" t="s">
         <v>196</v>
       </c>
-      <c r="E111" s="207" t="s">
+      <c r="E111" s="203" t="s">
         <v>197</v>
       </c>
       <c r="F111" s="60"/>
@@ -13515,19 +13515,19 @@
       <c r="Q114" s="73"/>
     </row>
     <row r="115" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="190" t="s">
+      <c r="A115" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="B115" s="191" t="s">
+      <c r="B115" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="C115" s="191" t="s">
+      <c r="C115" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="D115" s="194" t="s">
+      <c r="D115" s="201" t="s">
         <v>201</v>
       </c>
-      <c r="E115" s="192" t="s">
+      <c r="E115" s="202" t="s">
         <v>202</v>
       </c>
       <c r="F115" s="60"/>
@@ -13601,19 +13601,19 @@
       <c r="Q118" s="73"/>
     </row>
     <row r="119" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="190" t="s">
+      <c r="A119" s="197" t="s">
         <v>203</v>
       </c>
-      <c r="B119" s="191" t="s">
+      <c r="B119" s="199" t="s">
         <v>204</v>
       </c>
-      <c r="C119" s="191" t="s">
+      <c r="C119" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="D119" s="191" t="s">
+      <c r="D119" s="199" t="s">
         <v>206</v>
       </c>
-      <c r="E119" s="191" t="s">
+      <c r="E119" s="199" t="s">
         <v>207</v>
       </c>
       <c r="F119" s="60"/>
@@ -13687,19 +13687,19 @@
       <c r="Q122" s="73"/>
     </row>
     <row r="123" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="190" t="s">
+      <c r="A123" s="197" t="s">
         <v>208</v>
       </c>
-      <c r="B123" s="191" t="s">
+      <c r="B123" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="C123" s="191" t="s">
+      <c r="C123" s="199" t="s">
         <v>210</v>
       </c>
-      <c r="D123" s="191" t="s">
+      <c r="D123" s="199" t="s">
         <v>211</v>
       </c>
-      <c r="E123" s="191" t="s">
+      <c r="E123" s="199" t="s">
         <v>212</v>
       </c>
       <c r="F123" s="60"/>
@@ -13773,19 +13773,19 @@
       <c r="Q126" s="73"/>
     </row>
     <row r="127" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="190" t="s">
+      <c r="A127" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="B127" s="191" t="s">
+      <c r="B127" s="199" t="s">
         <v>214</v>
       </c>
-      <c r="C127" s="191" t="s">
+      <c r="C127" s="199" t="s">
         <v>215</v>
       </c>
-      <c r="D127" s="191" t="s">
+      <c r="D127" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="E127" s="191" t="s">
+      <c r="E127" s="199" t="s">
         <v>217</v>
       </c>
       <c r="F127" s="60"/>
@@ -13859,19 +13859,19 @@
       <c r="Q130" s="73"/>
     </row>
     <row r="131" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="190" t="s">
+      <c r="A131" s="197" t="s">
         <v>218</v>
       </c>
-      <c r="B131" s="191" t="s">
+      <c r="B131" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="C131" s="191" t="s">
+      <c r="C131" s="199" t="s">
         <v>220</v>
       </c>
-      <c r="D131" s="191" t="s">
+      <c r="D131" s="199" t="s">
         <v>221</v>
       </c>
-      <c r="E131" s="191" t="s">
+      <c r="E131" s="199" t="s">
         <v>222</v>
       </c>
       <c r="F131" s="60"/>
@@ -13945,19 +13945,19 @@
       <c r="Q134" s="73"/>
     </row>
     <row r="135" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="190" t="s">
+      <c r="A135" s="197" t="s">
         <v>223</v>
       </c>
-      <c r="B135" s="191" t="s">
+      <c r="B135" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="C135" s="191" t="s">
+      <c r="C135" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="D135" s="191" t="s">
+      <c r="D135" s="199" t="s">
         <v>226</v>
       </c>
-      <c r="E135" s="191" t="s">
+      <c r="E135" s="199" t="s">
         <v>227</v>
       </c>
       <c r="F135" s="60"/>
@@ -14031,19 +14031,19 @@
       <c r="Q138" s="73"/>
     </row>
     <row r="139" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="190" t="s">
+      <c r="A139" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="B139" s="191" t="s">
+      <c r="B139" s="199" t="s">
         <v>229</v>
       </c>
-      <c r="C139" s="191" t="s">
+      <c r="C139" s="199" t="s">
         <v>230</v>
       </c>
-      <c r="D139" s="194" t="s">
+      <c r="D139" s="201" t="s">
         <v>231</v>
       </c>
-      <c r="E139" s="192" t="s">
+      <c r="E139" s="202" t="s">
         <v>232</v>
       </c>
       <c r="F139" s="60"/>
@@ -14117,19 +14117,19 @@
       <c r="Q142" s="73"/>
     </row>
     <row r="143" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="190" t="s">
+      <c r="A143" s="197" t="s">
         <v>233</v>
       </c>
-      <c r="B143" s="191" t="s">
+      <c r="B143" s="199" t="s">
         <v>234</v>
       </c>
-      <c r="C143" s="191" t="s">
+      <c r="C143" s="199" t="s">
         <v>235</v>
       </c>
-      <c r="D143" s="191" t="s">
+      <c r="D143" s="199" t="s">
         <v>236</v>
       </c>
-      <c r="E143" s="191" t="s">
+      <c r="E143" s="199" t="s">
         <v>237</v>
       </c>
       <c r="F143" s="60"/>
@@ -14203,19 +14203,19 @@
       <c r="Q146" s="73"/>
     </row>
     <row r="147" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="190" t="s">
+      <c r="A147" s="197" t="s">
         <v>238</v>
       </c>
-      <c r="B147" s="191" t="s">
+      <c r="B147" s="199" t="s">
         <v>239</v>
       </c>
-      <c r="C147" s="191" t="s">
+      <c r="C147" s="199" t="s">
         <v>240</v>
       </c>
-      <c r="D147" s="191" t="s">
+      <c r="D147" s="199" t="s">
         <v>241</v>
       </c>
-      <c r="E147" s="191" t="s">
+      <c r="E147" s="199" t="s">
         <v>242</v>
       </c>
       <c r="F147" s="60"/>
@@ -14289,19 +14289,19 @@
       <c r="Q150" s="73"/>
     </row>
     <row r="151" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="190" t="s">
+      <c r="A151" s="197" t="s">
         <v>243</v>
       </c>
-      <c r="B151" s="191" t="s">
+      <c r="B151" s="199" t="s">
         <v>244</v>
       </c>
-      <c r="C151" s="191" t="s">
+      <c r="C151" s="199" t="s">
         <v>245</v>
       </c>
-      <c r="D151" s="191" t="s">
+      <c r="D151" s="199" t="s">
         <v>246</v>
       </c>
-      <c r="E151" s="191" t="s">
+      <c r="E151" s="199" t="s">
         <v>247</v>
       </c>
       <c r="F151" s="55"/>
@@ -14375,19 +14375,19 @@
       <c r="Q154" s="73"/>
     </row>
     <row r="155" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="190" t="s">
+      <c r="A155" s="197" t="s">
         <v>248</v>
       </c>
-      <c r="B155" s="191" t="s">
+      <c r="B155" s="199" t="s">
         <v>249</v>
       </c>
-      <c r="C155" s="191" t="s">
+      <c r="C155" s="199" t="s">
         <v>250</v>
       </c>
-      <c r="D155" s="191" t="s">
+      <c r="D155" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="E155" s="191" t="s">
+      <c r="E155" s="199" t="s">
         <v>252</v>
       </c>
       <c r="F155" s="55"/>
@@ -14461,19 +14461,19 @@
       <c r="Q158" s="73"/>
     </row>
     <row r="159" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="190" t="s">
+      <c r="A159" s="197" t="s">
         <v>253</v>
       </c>
-      <c r="B159" s="191" t="s">
+      <c r="B159" s="199" t="s">
         <v>254</v>
       </c>
-      <c r="C159" s="191" t="s">
+      <c r="C159" s="199" t="s">
         <v>255</v>
       </c>
-      <c r="D159" s="191" t="s">
+      <c r="D159" s="199" t="s">
         <v>256</v>
       </c>
-      <c r="E159" s="191" t="s">
+      <c r="E159" s="199" t="s">
         <v>257</v>
       </c>
       <c r="F159" s="55"/>
@@ -14547,19 +14547,19 @@
       <c r="Q162" s="73"/>
     </row>
     <row r="163" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="190" t="s">
+      <c r="A163" s="197" t="s">
         <v>258</v>
       </c>
-      <c r="B163" s="191" t="s">
+      <c r="B163" s="199" t="s">
         <v>259</v>
       </c>
-      <c r="C163" s="191" t="s">
+      <c r="C163" s="199" t="s">
         <v>260</v>
       </c>
-      <c r="D163" s="191" t="s">
+      <c r="D163" s="199" t="s">
         <v>261</v>
       </c>
-      <c r="E163" s="191" t="s">
+      <c r="E163" s="199" t="s">
         <v>262</v>
       </c>
       <c r="F163" s="55"/>
@@ -14633,19 +14633,19 @@
       <c r="Q166" s="73"/>
     </row>
     <row r="167" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="190" t="s">
+      <c r="A167" s="197" t="s">
         <v>263</v>
       </c>
-      <c r="B167" s="191" t="s">
+      <c r="B167" s="199" t="s">
         <v>264</v>
       </c>
-      <c r="C167" s="191" t="s">
+      <c r="C167" s="199" t="s">
         <v>265</v>
       </c>
-      <c r="D167" s="191" t="s">
+      <c r="D167" s="199" t="s">
         <v>266</v>
       </c>
-      <c r="E167" s="191" t="s">
+      <c r="E167" s="199" t="s">
         <v>267</v>
       </c>
       <c r="F167" s="55"/>
@@ -14719,19 +14719,19 @@
       <c r="Q170" s="73"/>
     </row>
     <row r="171" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="190" t="s">
+      <c r="A171" s="197" t="s">
         <v>268</v>
       </c>
-      <c r="B171" s="191" t="s">
+      <c r="B171" s="199" t="s">
         <v>269</v>
       </c>
-      <c r="C171" s="191" t="s">
+      <c r="C171" s="199" t="s">
         <v>270</v>
       </c>
-      <c r="D171" s="191" t="s">
+      <c r="D171" s="199" t="s">
         <v>271</v>
       </c>
-      <c r="E171" s="191" t="s">
+      <c r="E171" s="199" t="s">
         <v>272</v>
       </c>
       <c r="F171" s="55"/>
@@ -14805,19 +14805,19 @@
       <c r="Q174" s="73"/>
     </row>
     <row r="175" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="190" t="s">
+      <c r="A175" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="B175" s="191" t="s">
+      <c r="B175" s="199" t="s">
         <v>274</v>
       </c>
-      <c r="C175" s="191" t="s">
+      <c r="C175" s="199" t="s">
         <v>275</v>
       </c>
-      <c r="D175" s="191" t="s">
+      <c r="D175" s="199" t="s">
         <v>276</v>
       </c>
-      <c r="E175" s="191" t="s">
+      <c r="E175" s="199" t="s">
         <v>277</v>
       </c>
       <c r="F175" s="55"/>
@@ -14891,19 +14891,19 @@
       <c r="Q178" s="73"/>
     </row>
     <row r="179" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="190" t="s">
+      <c r="A179" s="197" t="s">
         <v>278</v>
       </c>
-      <c r="B179" s="191" t="s">
+      <c r="B179" s="199" t="s">
         <v>279</v>
       </c>
-      <c r="C179" s="191" t="s">
+      <c r="C179" s="199" t="s">
         <v>280</v>
       </c>
-      <c r="D179" s="191" t="s">
+      <c r="D179" s="199" t="s">
         <v>281</v>
       </c>
-      <c r="E179" s="191" t="s">
+      <c r="E179" s="199" t="s">
         <v>282</v>
       </c>
       <c r="F179" s="55"/>
@@ -14977,19 +14977,19 @@
       <c r="Q182" s="73"/>
     </row>
     <row r="183" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="190" t="s">
+      <c r="A183" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="B183" s="191" t="s">
+      <c r="B183" s="199" t="s">
         <v>284</v>
       </c>
-      <c r="C183" s="191" t="s">
+      <c r="C183" s="199" t="s">
         <v>285</v>
       </c>
-      <c r="D183" s="191" t="s">
+      <c r="D183" s="199" t="s">
         <v>286</v>
       </c>
-      <c r="E183" s="191" t="s">
+      <c r="E183" s="199" t="s">
         <v>287</v>
       </c>
       <c r="F183" s="55"/>
@@ -15063,19 +15063,19 @@
       <c r="Q186" s="73"/>
     </row>
     <row r="187" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="190" t="s">
+      <c r="A187" s="197" t="s">
         <v>288</v>
       </c>
-      <c r="B187" s="191" t="s">
+      <c r="B187" s="199" t="s">
         <v>289</v>
       </c>
-      <c r="C187" s="191" t="s">
+      <c r="C187" s="199" t="s">
         <v>290</v>
       </c>
-      <c r="D187" s="191" t="s">
+      <c r="D187" s="199" t="s">
         <v>291</v>
       </c>
-      <c r="E187" s="191" t="s">
+      <c r="E187" s="199" t="s">
         <v>292</v>
       </c>
       <c r="F187" s="55"/>
@@ -15149,19 +15149,19 @@
       <c r="Q190" s="73"/>
     </row>
     <row r="191" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="190" t="s">
+      <c r="A191" s="197" t="s">
         <v>293</v>
       </c>
-      <c r="B191" s="191" t="s">
+      <c r="B191" s="199" t="s">
         <v>294</v>
       </c>
-      <c r="C191" s="191" t="s">
+      <c r="C191" s="199" t="s">
         <v>295</v>
       </c>
-      <c r="D191" s="191" t="s">
+      <c r="D191" s="199" t="s">
         <v>296</v>
       </c>
-      <c r="E191" s="191" t="s">
+      <c r="E191" s="199" t="s">
         <v>297</v>
       </c>
       <c r="F191" s="55"/>
@@ -15235,19 +15235,19 @@
       <c r="Q194" s="73"/>
     </row>
     <row r="195" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="190" t="s">
+      <c r="A195" s="197" t="s">
         <v>298</v>
       </c>
-      <c r="B195" s="191" t="s">
+      <c r="B195" s="199" t="s">
         <v>299</v>
       </c>
-      <c r="C195" s="191" t="s">
+      <c r="C195" s="199" t="s">
         <v>300</v>
       </c>
-      <c r="D195" s="191" t="s">
+      <c r="D195" s="199" t="s">
         <v>301</v>
       </c>
-      <c r="E195" s="191" t="s">
+      <c r="E195" s="199" t="s">
         <v>302</v>
       </c>
       <c r="F195" s="55"/>
@@ -15321,19 +15321,19 @@
       <c r="Q198" s="73"/>
     </row>
     <row r="199" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="190" t="s">
+      <c r="A199" s="197" t="s">
         <v>303</v>
       </c>
-      <c r="B199" s="191" t="s">
+      <c r="B199" s="199" t="s">
         <v>304</v>
       </c>
-      <c r="C199" s="191" t="s">
+      <c r="C199" s="199" t="s">
         <v>305</v>
       </c>
-      <c r="D199" s="191" t="s">
+      <c r="D199" s="199" t="s">
         <v>306</v>
       </c>
-      <c r="E199" s="191" t="s">
+      <c r="E199" s="199" t="s">
         <v>307</v>
       </c>
       <c r="F199" s="55"/>
@@ -15407,19 +15407,19 @@
       <c r="Q202" s="73"/>
     </row>
     <row r="203" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="190" t="s">
+      <c r="A203" s="197" t="s">
         <v>308</v>
       </c>
-      <c r="B203" s="191" t="s">
+      <c r="B203" s="199" t="s">
         <v>309</v>
       </c>
-      <c r="C203" s="191" t="s">
+      <c r="C203" s="199" t="s">
         <v>310</v>
       </c>
-      <c r="D203" s="191" t="s">
+      <c r="D203" s="199" t="s">
         <v>311</v>
       </c>
-      <c r="E203" s="191" t="s">
+      <c r="E203" s="199" t="s">
         <v>312</v>
       </c>
       <c r="F203" s="55"/>
@@ -15513,80 +15513,174 @@
     </row>
   </sheetData>
   <mergeCells count="267">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="E195:E197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="D187:D189"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="E175:E177"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="D95:D97"/>
@@ -15611,175 +15705,81 @@
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="E151:E153"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="E175:E177"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E191:E193"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="E199:E201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="E195:E197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="D187:D189"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:J6 L6:O9">
     <cfRule type="cellIs" dxfId="441" priority="1" stopIfTrue="1" operator="equal">
@@ -16170,7 +16170,7 @@
       <c r="A1" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="222" t="s">
         <v>314</v>
       </c>
       <c r="C1" s="218"/>
@@ -16182,17 +16182,17 @@
       <c r="A2" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="225"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="218"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
       <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="225" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="225"/>
+      <c r="B3" s="222"/>
       <c r="C3" s="218"/>
       <c r="D3" s="218"/>
       <c r="E3" s="218"/>
@@ -16233,19 +16233,19 @@
       <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="224" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="223" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="223" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="223" t="s">
         <v>326</v>
       </c>
       <c r="F7" s="89"/>
@@ -16275,19 +16275,19 @@
       <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="224" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="220" t="s">
+      <c r="B11" s="223" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="223" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="220" t="s">
+      <c r="D11" s="223" t="s">
         <v>330</v>
       </c>
-      <c r="E11" s="220" t="s">
+      <c r="E11" s="223" t="s">
         <v>331</v>
       </c>
       <c r="F11" s="89"/>
@@ -16317,19 +16317,19 @@
       <c r="F14" s="82"/>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="224" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="221" t="s">
+      <c r="B15" s="219" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="223" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="223" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="220" t="s">
+      <c r="E15" s="223" t="s">
         <v>336</v>
       </c>
       <c r="F15" s="89"/>
@@ -16359,19 +16359,19 @@
       <c r="F18" s="82"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="224" t="s">
         <v>337</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="219" t="s">
         <v>338</v>
       </c>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="223" t="s">
         <v>339</v>
       </c>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="223" t="s">
         <v>340</v>
       </c>
-      <c r="E19" s="220" t="s">
+      <c r="E19" s="223" t="s">
         <v>341</v>
       </c>
       <c r="F19" s="89"/>
@@ -16401,19 +16401,19 @@
       <c r="F22" s="82"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="223" t="s">
+      <c r="A23" s="224" t="s">
         <v>342</v>
       </c>
-      <c r="B23" s="221" t="s">
+      <c r="B23" s="219" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="220" t="s">
+      <c r="C23" s="223" t="s">
         <v>344</v>
       </c>
-      <c r="D23" s="220" t="s">
+      <c r="D23" s="223" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="220" t="s">
+      <c r="E23" s="223" t="s">
         <v>346</v>
       </c>
       <c r="F23" s="89"/>
@@ -16443,19 +16443,19 @@
       <c r="F26" s="82"/>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="223" t="s">
+      <c r="A27" s="224" t="s">
         <v>347</v>
       </c>
-      <c r="B27" s="221" t="s">
+      <c r="B27" s="219" t="s">
         <v>348</v>
       </c>
-      <c r="C27" s="220" t="s">
+      <c r="C27" s="223" t="s">
         <v>349</v>
       </c>
-      <c r="D27" s="220" t="s">
+      <c r="D27" s="223" t="s">
         <v>350</v>
       </c>
-      <c r="E27" s="220" t="s">
+      <c r="E27" s="223" t="s">
         <v>351</v>
       </c>
       <c r="F27" s="89"/>
@@ -16485,19 +16485,19 @@
       <c r="F30" s="82"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="224" t="s">
         <v>352</v>
       </c>
-      <c r="B31" s="221" t="s">
+      <c r="B31" s="219" t="s">
         <v>353</v>
       </c>
-      <c r="C31" s="222" t="s">
+      <c r="C31" s="217" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="220" t="s">
+      <c r="D31" s="223" t="s">
         <v>355</v>
       </c>
-      <c r="E31" s="220" t="s">
+      <c r="E31" s="223" t="s">
         <v>356</v>
       </c>
       <c r="F31" s="89"/>
@@ -16527,19 +16527,19 @@
       <c r="F34" s="82"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="223" t="s">
+      <c r="A35" s="224" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="222" t="s">
+      <c r="B35" s="217" t="s">
         <v>358</v>
       </c>
-      <c r="C35" s="222" t="s">
+      <c r="C35" s="217" t="s">
         <v>359</v>
       </c>
-      <c r="D35" s="220" t="s">
+      <c r="D35" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E35" s="220" t="s">
+      <c r="E35" s="223" t="s">
         <v>361</v>
       </c>
       <c r="F35" s="89"/>
@@ -16569,19 +16569,19 @@
       <c r="F38" s="82"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="224" t="s">
         <v>362</v>
       </c>
-      <c r="B39" s="221" t="s">
+      <c r="B39" s="219" t="s">
         <v>363</v>
       </c>
-      <c r="C39" s="222" t="s">
+      <c r="C39" s="217" t="s">
         <v>364</v>
       </c>
-      <c r="D39" s="220" t="s">
+      <c r="D39" s="223" t="s">
         <v>365</v>
       </c>
-      <c r="E39" s="220" t="s">
+      <c r="E39" s="223" t="s">
         <v>366</v>
       </c>
       <c r="F39" s="89"/>
@@ -16611,19 +16611,19 @@
       <c r="F42" s="82"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="223" t="s">
+      <c r="A43" s="224" t="s">
         <v>367</v>
       </c>
-      <c r="B43" s="221" t="s">
+      <c r="B43" s="219" t="s">
         <v>368</v>
       </c>
-      <c r="C43" s="222" t="s">
+      <c r="C43" s="217" t="s">
         <v>369</v>
       </c>
-      <c r="D43" s="220" t="s">
+      <c r="D43" s="223" t="s">
         <v>370</v>
       </c>
-      <c r="E43" s="220" t="s">
+      <c r="E43" s="223" t="s">
         <v>371</v>
       </c>
       <c r="F43" s="89"/>
@@ -16653,19 +16653,19 @@
       <c r="F46" s="82"/>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="223" t="s">
+      <c r="A47" s="224" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="221" t="s">
+      <c r="B47" s="219" t="s">
         <v>373</v>
       </c>
-      <c r="C47" s="222" t="s">
+      <c r="C47" s="217" t="s">
         <v>374</v>
       </c>
-      <c r="D47" s="220" t="s">
+      <c r="D47" s="223" t="s">
         <v>375</v>
       </c>
-      <c r="E47" s="220" t="s">
+      <c r="E47" s="223" t="s">
         <v>376</v>
       </c>
       <c r="F47" s="89"/>
@@ -16695,19 +16695,19 @@
       <c r="F50" s="82"/>
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="223" t="s">
+      <c r="A51" s="224" t="s">
         <v>377</v>
       </c>
-      <c r="B51" s="221" t="s">
+      <c r="B51" s="219" t="s">
         <v>378</v>
       </c>
-      <c r="C51" s="222" t="s">
+      <c r="C51" s="217" t="s">
         <v>379</v>
       </c>
-      <c r="D51" s="220" t="s">
+      <c r="D51" s="223" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="220" t="s">
+      <c r="E51" s="223" t="s">
         <v>381</v>
       </c>
       <c r="F51" s="89"/>
@@ -16737,19 +16737,19 @@
       <c r="F54" s="82"/>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="223" t="s">
+      <c r="A55" s="224" t="s">
         <v>382</v>
       </c>
-      <c r="B55" s="221" t="s">
+      <c r="B55" s="219" t="s">
         <v>383</v>
       </c>
-      <c r="C55" s="219" t="s">
+      <c r="C55" s="220" t="s">
         <v>384</v>
       </c>
-      <c r="D55" s="220" t="s">
+      <c r="D55" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="E55" s="220" t="s">
+      <c r="E55" s="223" t="s">
         <v>386</v>
       </c>
       <c r="F55" s="89"/>
@@ -16779,19 +16779,19 @@
       <c r="F58" s="82"/>
     </row>
     <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="223" t="s">
+      <c r="A59" s="224" t="s">
         <v>387</v>
       </c>
-      <c r="B59" s="221" t="s">
+      <c r="B59" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="219" t="s">
+      <c r="C59" s="220" t="s">
         <v>388</v>
       </c>
-      <c r="D59" s="220" t="s">
+      <c r="D59" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E59" s="220" t="s">
+      <c r="E59" s="223" t="s">
         <v>389</v>
       </c>
       <c r="F59" s="89"/>
@@ -16821,19 +16821,19 @@
       <c r="F62" s="82"/>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="223" t="s">
+      <c r="A63" s="224" t="s">
         <v>390</v>
       </c>
-      <c r="B63" s="221" t="s">
+      <c r="B63" s="219" t="s">
         <v>391</v>
       </c>
-      <c r="C63" s="219" t="s">
+      <c r="C63" s="220" t="s">
         <v>392</v>
       </c>
-      <c r="D63" s="220" t="s">
+      <c r="D63" s="223" t="s">
         <v>393</v>
       </c>
-      <c r="E63" s="220" t="s">
+      <c r="E63" s="223" t="s">
         <v>394</v>
       </c>
       <c r="F63" s="89"/>
@@ -16863,19 +16863,19 @@
       <c r="F66" s="82"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="223" t="s">
+      <c r="A67" s="224" t="s">
         <v>395</v>
       </c>
-      <c r="B67" s="221" t="s">
+      <c r="B67" s="219" t="s">
         <v>396</v>
       </c>
-      <c r="C67" s="222" t="s">
+      <c r="C67" s="217" t="s">
         <v>397</v>
       </c>
-      <c r="D67" s="220" t="s">
+      <c r="D67" s="223" t="s">
         <v>398</v>
       </c>
-      <c r="E67" s="220" t="s">
+      <c r="E67" s="223" t="s">
         <v>399</v>
       </c>
       <c r="F67" s="89"/>
@@ -16905,19 +16905,19 @@
       <c r="F70" s="82"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="223" t="s">
+      <c r="A71" s="224" t="s">
         <v>400</v>
       </c>
-      <c r="B71" s="221" t="s">
+      <c r="B71" s="219" t="s">
         <v>401</v>
       </c>
-      <c r="C71" s="222" t="s">
+      <c r="C71" s="217" t="s">
         <v>402</v>
       </c>
-      <c r="D71" s="220" t="s">
+      <c r="D71" s="223" t="s">
         <v>403</v>
       </c>
-      <c r="E71" s="220" t="s">
+      <c r="E71" s="223" t="s">
         <v>404</v>
       </c>
       <c r="F71" s="89"/>
@@ -16947,19 +16947,19 @@
       <c r="F74" s="82"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="223" t="s">
+      <c r="A75" s="224" t="s">
         <v>405</v>
       </c>
-      <c r="B75" s="221" t="s">
+      <c r="B75" s="219" t="s">
         <v>406</v>
       </c>
-      <c r="C75" s="222" t="s">
+      <c r="C75" s="217" t="s">
         <v>407</v>
       </c>
-      <c r="D75" s="220" t="s">
+      <c r="D75" s="223" t="s">
         <v>408</v>
       </c>
-      <c r="E75" s="220" t="s">
+      <c r="E75" s="223" t="s">
         <v>409</v>
       </c>
       <c r="F75" s="89"/>
@@ -16989,19 +16989,19 @@
       <c r="F78" s="82"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="223" t="s">
+      <c r="A79" s="224" t="s">
         <v>410</v>
       </c>
-      <c r="B79" s="221" t="s">
+      <c r="B79" s="219" t="s">
         <v>411</v>
       </c>
-      <c r="C79" s="219" t="s">
+      <c r="C79" s="220" t="s">
         <v>412</v>
       </c>
-      <c r="D79" s="220" t="s">
+      <c r="D79" s="223" t="s">
         <v>413</v>
       </c>
-      <c r="E79" s="220" t="s">
+      <c r="E79" s="223" t="s">
         <v>414</v>
       </c>
       <c r="F79" s="89"/>
@@ -17031,19 +17031,19 @@
       <c r="F82" s="82"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="223" t="s">
+      <c r="A83" s="224" t="s">
         <v>415</v>
       </c>
-      <c r="B83" s="221" t="s">
+      <c r="B83" s="219" t="s">
         <v>416</v>
       </c>
-      <c r="C83" s="219" t="s">
+      <c r="C83" s="220" t="s">
         <v>417</v>
       </c>
-      <c r="D83" s="220" t="s">
+      <c r="D83" s="223" t="s">
         <v>418</v>
       </c>
-      <c r="E83" s="220" t="s">
+      <c r="E83" s="223" t="s">
         <v>419</v>
       </c>
       <c r="F83" s="89"/>
@@ -17073,19 +17073,19 @@
       <c r="F86" s="82"/>
     </row>
     <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="223" t="s">
+      <c r="A87" s="224" t="s">
         <v>420</v>
       </c>
-      <c r="B87" s="221" t="s">
+      <c r="B87" s="219" t="s">
         <v>421</v>
       </c>
-      <c r="C87" s="219" t="s">
+      <c r="C87" s="220" t="s">
         <v>422</v>
       </c>
-      <c r="D87" s="220" t="s">
+      <c r="D87" s="223" t="s">
         <v>423</v>
       </c>
-      <c r="E87" s="220" t="s">
+      <c r="E87" s="223" t="s">
         <v>424</v>
       </c>
       <c r="F87" s="89"/>
@@ -17115,19 +17115,19 @@
       <c r="F90" s="82"/>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="221" t="s">
         <v>425</v>
       </c>
-      <c r="B91" s="221" t="s">
+      <c r="B91" s="219" t="s">
         <v>426</v>
       </c>
-      <c r="C91" s="219" t="s">
+      <c r="C91" s="220" t="s">
         <v>427</v>
       </c>
-      <c r="D91" s="222" t="s">
+      <c r="D91" s="217" t="s">
         <v>428</v>
       </c>
-      <c r="E91" s="222" t="s">
+      <c r="E91" s="217" t="s">
         <v>429</v>
       </c>
       <c r="F91" s="82"/>
@@ -17157,19 +17157,19 @@
       <c r="F94" s="82"/>
     </row>
     <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="221" t="s">
         <v>430</v>
       </c>
-      <c r="B95" s="221" t="s">
+      <c r="B95" s="219" t="s">
         <v>431</v>
       </c>
-      <c r="C95" s="219" t="s">
+      <c r="C95" s="220" t="s">
         <v>432</v>
       </c>
-      <c r="D95" s="222" t="s">
+      <c r="D95" s="217" t="s">
         <v>433</v>
       </c>
-      <c r="E95" s="222" t="s">
+      <c r="E95" s="217" t="s">
         <v>434</v>
       </c>
       <c r="F95" s="82"/>
@@ -17199,19 +17199,19 @@
       <c r="F98" s="82"/>
     </row>
     <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="217" t="s">
+      <c r="A99" s="221" t="s">
         <v>435</v>
       </c>
-      <c r="B99" s="221" t="s">
+      <c r="B99" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="C99" s="219" t="s">
+      <c r="C99" s="220" t="s">
         <v>437</v>
       </c>
-      <c r="D99" s="222" t="s">
+      <c r="D99" s="217" t="s">
         <v>438</v>
       </c>
-      <c r="E99" s="222" t="s">
+      <c r="E99" s="217" t="s">
         <v>439</v>
       </c>
       <c r="F99" s="82"/>
@@ -17241,19 +17241,19 @@
       <c r="F102" s="82"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="217" t="s">
+      <c r="A103" s="221" t="s">
         <v>440</v>
       </c>
-      <c r="B103" s="221" t="s">
+      <c r="B103" s="219" t="s">
         <v>441</v>
       </c>
-      <c r="C103" s="219" t="s">
+      <c r="C103" s="220" t="s">
         <v>442</v>
       </c>
-      <c r="D103" s="222" t="s">
+      <c r="D103" s="217" t="s">
         <v>443</v>
       </c>
-      <c r="E103" s="222" t="s">
+      <c r="E103" s="217" t="s">
         <v>444</v>
       </c>
       <c r="F103" s="82"/>
@@ -17283,19 +17283,19 @@
       <c r="F106" s="82"/>
     </row>
     <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="217" t="s">
+      <c r="A107" s="221" t="s">
         <v>445</v>
       </c>
-      <c r="B107" s="221" t="s">
+      <c r="B107" s="219" t="s">
         <v>446</v>
       </c>
-      <c r="C107" s="219" t="s">
+      <c r="C107" s="220" t="s">
         <v>447</v>
       </c>
-      <c r="D107" s="222" t="s">
+      <c r="D107" s="217" t="s">
         <v>448</v>
       </c>
-      <c r="E107" s="220" t="s">
+      <c r="E107" s="223" t="s">
         <v>449</v>
       </c>
       <c r="F107" s="82"/>
@@ -17325,19 +17325,19 @@
       <c r="F110" s="82"/>
     </row>
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="217" t="s">
+      <c r="A111" s="221" t="s">
         <v>450</v>
       </c>
-      <c r="B111" s="221" t="s">
+      <c r="B111" s="219" t="s">
         <v>451</v>
       </c>
-      <c r="C111" s="219" t="s">
+      <c r="C111" s="220" t="s">
         <v>452</v>
       </c>
-      <c r="D111" s="222" t="s">
+      <c r="D111" s="217" t="s">
         <v>453</v>
       </c>
-      <c r="E111" s="222" t="s">
+      <c r="E111" s="217" t="s">
         <v>454</v>
       </c>
       <c r="F111" s="82"/>
@@ -17367,19 +17367,19 @@
       <c r="F114" s="82"/>
     </row>
     <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="217" t="s">
+      <c r="A115" s="221" t="s">
         <v>455</v>
       </c>
-      <c r="B115" s="221" t="s">
+      <c r="B115" s="219" t="s">
         <v>456</v>
       </c>
-      <c r="C115" s="219" t="s">
+      <c r="C115" s="220" t="s">
         <v>457</v>
       </c>
-      <c r="D115" s="222" t="s">
+      <c r="D115" s="217" t="s">
         <v>458</v>
       </c>
-      <c r="E115" s="222" t="s">
+      <c r="E115" s="217" t="s">
         <v>459</v>
       </c>
       <c r="F115" s="82"/>
@@ -17409,19 +17409,19 @@
       <c r="F118" s="82"/>
     </row>
     <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="217" t="s">
+      <c r="A119" s="221" t="s">
         <v>460</v>
       </c>
-      <c r="B119" s="221" t="s">
+      <c r="B119" s="219" t="s">
         <v>461</v>
       </c>
-      <c r="C119" s="222" t="s">
+      <c r="C119" s="217" t="s">
         <v>462</v>
       </c>
-      <c r="D119" s="222" t="s">
+      <c r="D119" s="217" t="s">
         <v>463</v>
       </c>
-      <c r="E119" s="222" t="s">
+      <c r="E119" s="217" t="s">
         <v>464</v>
       </c>
       <c r="F119" s="82"/>
@@ -17451,19 +17451,19 @@
       <c r="F122" s="82"/>
     </row>
     <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="217" t="s">
+      <c r="A123" s="221" t="s">
         <v>465</v>
       </c>
-      <c r="B123" s="221" t="s">
+      <c r="B123" s="219" t="s">
         <v>466</v>
       </c>
-      <c r="C123" s="222" t="s">
+      <c r="C123" s="217" t="s">
         <v>467</v>
       </c>
-      <c r="D123" s="222" t="s">
+      <c r="D123" s="217" t="s">
         <v>468</v>
       </c>
-      <c r="E123" s="222" t="s">
+      <c r="E123" s="217" t="s">
         <v>469</v>
       </c>
       <c r="F123" s="82"/>
@@ -17493,19 +17493,19 @@
       <c r="F126" s="82"/>
     </row>
     <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="217" t="s">
+      <c r="A127" s="221" t="s">
         <v>470</v>
       </c>
-      <c r="B127" s="221" t="s">
+      <c r="B127" s="219" t="s">
         <v>471</v>
       </c>
-      <c r="C127" s="222" t="s">
+      <c r="C127" s="217" t="s">
         <v>472</v>
       </c>
-      <c r="D127" s="222" t="s">
+      <c r="D127" s="217" t="s">
         <v>473</v>
       </c>
-      <c r="E127" s="222" t="s">
+      <c r="E127" s="217" t="s">
         <v>474</v>
       </c>
       <c r="F127" s="82"/>
@@ -17535,19 +17535,19 @@
       <c r="F130" s="82"/>
     </row>
     <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="217" t="s">
+      <c r="A131" s="221" t="s">
         <v>475</v>
       </c>
-      <c r="B131" s="221" t="s">
+      <c r="B131" s="219" t="s">
         <v>476</v>
       </c>
-      <c r="C131" s="222" t="s">
+      <c r="C131" s="217" t="s">
         <v>477</v>
       </c>
-      <c r="D131" s="222" t="s">
+      <c r="D131" s="217" t="s">
         <v>478</v>
       </c>
-      <c r="E131" s="222"/>
+      <c r="E131" s="217"/>
       <c r="F131" s="82"/>
     </row>
     <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -17575,19 +17575,19 @@
       <c r="F134" s="82"/>
     </row>
     <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="217" t="s">
+      <c r="A135" s="221" t="s">
         <v>479</v>
       </c>
-      <c r="B135" s="221" t="s">
+      <c r="B135" s="219" t="s">
         <v>480</v>
       </c>
-      <c r="C135" s="222" t="s">
+      <c r="C135" s="217" t="s">
         <v>481</v>
       </c>
-      <c r="D135" s="222" t="s">
+      <c r="D135" s="217" t="s">
         <v>482</v>
       </c>
-      <c r="E135" s="222" t="s">
+      <c r="E135" s="217" t="s">
         <v>483</v>
       </c>
       <c r="F135" s="82"/>
@@ -17617,19 +17617,19 @@
       <c r="F138" s="82"/>
     </row>
     <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="217" t="s">
+      <c r="A139" s="221" t="s">
         <v>484</v>
       </c>
-      <c r="B139" s="221" t="s">
+      <c r="B139" s="219" t="s">
         <v>485</v>
       </c>
-      <c r="C139" s="219" t="s">
+      <c r="C139" s="220" t="s">
         <v>486</v>
       </c>
-      <c r="D139" s="222" t="s">
+      <c r="D139" s="217" t="s">
         <v>487</v>
       </c>
-      <c r="E139" s="222" t="s">
+      <c r="E139" s="217" t="s">
         <v>488</v>
       </c>
       <c r="F139" s="82"/>
@@ -17659,19 +17659,19 @@
       <c r="F142" s="82"/>
     </row>
     <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="217" t="s">
+      <c r="A143" s="221" t="s">
         <v>489</v>
       </c>
-      <c r="B143" s="221" t="s">
+      <c r="B143" s="219" t="s">
         <v>490</v>
       </c>
-      <c r="C143" s="222" t="s">
+      <c r="C143" s="217" t="s">
         <v>491</v>
       </c>
-      <c r="D143" s="222" t="s">
+      <c r="D143" s="217" t="s">
         <v>492</v>
       </c>
-      <c r="E143" s="222" t="s">
+      <c r="E143" s="217" t="s">
         <v>493</v>
       </c>
       <c r="F143" s="82"/>
@@ -17701,19 +17701,19 @@
       <c r="F146" s="82"/>
     </row>
     <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="217" t="s">
+      <c r="A147" s="221" t="s">
         <v>494</v>
       </c>
-      <c r="B147" s="221" t="s">
+      <c r="B147" s="219" t="s">
         <v>495</v>
       </c>
-      <c r="C147" s="222" t="s">
+      <c r="C147" s="217" t="s">
         <v>496</v>
       </c>
-      <c r="D147" s="222" t="s">
+      <c r="D147" s="217" t="s">
         <v>497</v>
       </c>
-      <c r="E147" s="222" t="s">
+      <c r="E147" s="217" t="s">
         <v>498</v>
       </c>
       <c r="F147" s="82"/>
@@ -17743,19 +17743,19 @@
       <c r="F150" s="82"/>
     </row>
     <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="217" t="s">
+      <c r="A151" s="221" t="s">
         <v>499</v>
       </c>
-      <c r="B151" s="221" t="s">
+      <c r="B151" s="219" t="s">
         <v>500</v>
       </c>
-      <c r="C151" s="222" t="s">
+      <c r="C151" s="217" t="s">
         <v>501</v>
       </c>
-      <c r="D151" s="222" t="s">
+      <c r="D151" s="217" t="s">
         <v>502</v>
       </c>
-      <c r="E151" s="222" t="s">
+      <c r="E151" s="217" t="s">
         <v>503</v>
       </c>
       <c r="F151" s="82"/>
@@ -17785,19 +17785,19 @@
       <c r="F154" s="82"/>
     </row>
     <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="217" t="s">
+      <c r="A155" s="221" t="s">
         <v>504</v>
       </c>
-      <c r="B155" s="221" t="s">
+      <c r="B155" s="219" t="s">
         <v>505</v>
       </c>
-      <c r="C155" s="222" t="s">
+      <c r="C155" s="217" t="s">
         <v>506</v>
       </c>
-      <c r="D155" s="222" t="s">
+      <c r="D155" s="217" t="s">
         <v>507</v>
       </c>
-      <c r="E155" s="222" t="s">
+      <c r="E155" s="217" t="s">
         <v>508</v>
       </c>
       <c r="F155" s="82"/>
@@ -17827,19 +17827,19 @@
       <c r="F158" s="82"/>
     </row>
     <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="217" t="s">
+      <c r="A159" s="221" t="s">
         <v>509</v>
       </c>
-      <c r="B159" s="221" t="s">
+      <c r="B159" s="219" t="s">
         <v>510</v>
       </c>
-      <c r="C159" s="222" t="s">
+      <c r="C159" s="217" t="s">
         <v>511</v>
       </c>
-      <c r="D159" s="222" t="s">
+      <c r="D159" s="217" t="s">
         <v>512</v>
       </c>
-      <c r="E159" s="222" t="s">
+      <c r="E159" s="217" t="s">
         <v>513</v>
       </c>
       <c r="F159" s="82"/>
@@ -17869,19 +17869,19 @@
       <c r="F162" s="82"/>
     </row>
     <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="217" t="s">
+      <c r="A163" s="221" t="s">
         <v>514</v>
       </c>
-      <c r="B163" s="221" t="s">
+      <c r="B163" s="219" t="s">
         <v>515</v>
       </c>
-      <c r="C163" s="222" t="s">
+      <c r="C163" s="217" t="s">
         <v>516</v>
       </c>
-      <c r="D163" s="222" t="s">
+      <c r="D163" s="217" t="s">
         <v>517</v>
       </c>
-      <c r="E163" s="222" t="s">
+      <c r="E163" s="217" t="s">
         <v>518</v>
       </c>
       <c r="F163" s="82"/>
@@ -17911,19 +17911,19 @@
       <c r="F166" s="82"/>
     </row>
     <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="217" t="s">
+      <c r="A167" s="221" t="s">
         <v>519</v>
       </c>
-      <c r="B167" s="221" t="s">
+      <c r="B167" s="219" t="s">
         <v>520</v>
       </c>
-      <c r="C167" s="222" t="s">
+      <c r="C167" s="217" t="s">
         <v>521</v>
       </c>
-      <c r="D167" s="222" t="s">
+      <c r="D167" s="217" t="s">
         <v>522</v>
       </c>
-      <c r="E167" s="222" t="s">
+      <c r="E167" s="217" t="s">
         <v>523</v>
       </c>
       <c r="F167" s="82"/>
@@ -17953,19 +17953,19 @@
       <c r="F170" s="82"/>
     </row>
     <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="217" t="s">
+      <c r="A171" s="221" t="s">
         <v>524</v>
       </c>
-      <c r="B171" s="221" t="s">
+      <c r="B171" s="219" t="s">
         <v>525</v>
       </c>
-      <c r="C171" s="222" t="s">
+      <c r="C171" s="217" t="s">
         <v>526</v>
       </c>
-      <c r="D171" s="222" t="s">
+      <c r="D171" s="217" t="s">
         <v>527</v>
       </c>
-      <c r="E171" s="222" t="s">
+      <c r="E171" s="217" t="s">
         <v>528</v>
       </c>
       <c r="F171" s="82"/>
@@ -17995,19 +17995,19 @@
       <c r="F174" s="82"/>
     </row>
     <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="217" t="s">
+      <c r="A175" s="221" t="s">
         <v>529</v>
       </c>
-      <c r="B175" s="221" t="s">
+      <c r="B175" s="219" t="s">
         <v>530</v>
       </c>
-      <c r="C175" s="222" t="s">
+      <c r="C175" s="217" t="s">
         <v>531</v>
       </c>
-      <c r="D175" s="222" t="s">
+      <c r="D175" s="217" t="s">
         <v>532</v>
       </c>
-      <c r="E175" s="222" t="s">
+      <c r="E175" s="217" t="s">
         <v>533</v>
       </c>
       <c r="F175" s="82"/>
@@ -18037,19 +18037,19 @@
       <c r="F178" s="82"/>
     </row>
     <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="217" t="s">
+      <c r="A179" s="221" t="s">
         <v>534</v>
       </c>
-      <c r="B179" s="221" t="s">
+      <c r="B179" s="219" t="s">
         <v>535</v>
       </c>
-      <c r="C179" s="222" t="s">
+      <c r="C179" s="217" t="s">
         <v>536</v>
       </c>
-      <c r="D179" s="222" t="s">
+      <c r="D179" s="217" t="s">
         <v>537</v>
       </c>
-      <c r="E179" s="222" t="s">
+      <c r="E179" s="217" t="s">
         <v>538</v>
       </c>
       <c r="F179" s="82"/>
@@ -18079,19 +18079,19 @@
       <c r="F182" s="82"/>
     </row>
     <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="217" t="s">
+      <c r="A183" s="221" t="s">
         <v>539</v>
       </c>
-      <c r="B183" s="221" t="s">
+      <c r="B183" s="219" t="s">
         <v>540</v>
       </c>
-      <c r="C183" s="222" t="s">
+      <c r="C183" s="217" t="s">
         <v>541</v>
       </c>
-      <c r="D183" s="222" t="s">
+      <c r="D183" s="217" t="s">
         <v>542</v>
       </c>
-      <c r="E183" s="222" t="s">
+      <c r="E183" s="217" t="s">
         <v>543</v>
       </c>
       <c r="F183" s="82"/>
@@ -18121,19 +18121,19 @@
       <c r="F186" s="82"/>
     </row>
     <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="217" t="s">
+      <c r="A187" s="221" t="s">
         <v>544</v>
       </c>
-      <c r="B187" s="221" t="s">
+      <c r="B187" s="219" t="s">
         <v>545</v>
       </c>
-      <c r="C187" s="222" t="s">
+      <c r="C187" s="217" t="s">
         <v>546</v>
       </c>
-      <c r="D187" s="222" t="s">
+      <c r="D187" s="217" t="s">
         <v>547</v>
       </c>
-      <c r="E187" s="220" t="s">
+      <c r="E187" s="223" t="s">
         <v>548</v>
       </c>
       <c r="F187" s="82"/>
@@ -18163,19 +18163,19 @@
       <c r="F190" s="82"/>
     </row>
     <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="217" t="s">
+      <c r="A191" s="221" t="s">
         <v>549</v>
       </c>
-      <c r="B191" s="221" t="s">
+      <c r="B191" s="219" t="s">
         <v>550</v>
       </c>
-      <c r="C191" s="222" t="s">
+      <c r="C191" s="217" t="s">
         <v>551</v>
       </c>
-      <c r="D191" s="222" t="s">
+      <c r="D191" s="217" t="s">
         <v>552</v>
       </c>
-      <c r="E191" s="222" t="s">
+      <c r="E191" s="217" t="s">
         <v>553</v>
       </c>
       <c r="F191" s="82"/>
@@ -18205,19 +18205,19 @@
       <c r="F194" s="82"/>
     </row>
     <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="217" t="s">
+      <c r="A195" s="221" t="s">
         <v>554</v>
       </c>
-      <c r="B195" s="221" t="s">
+      <c r="B195" s="219" t="s">
         <v>555</v>
       </c>
-      <c r="C195" s="222" t="s">
+      <c r="C195" s="217" t="s">
         <v>556</v>
       </c>
-      <c r="D195" s="222" t="s">
+      <c r="D195" s="217" t="s">
         <v>557</v>
       </c>
-      <c r="E195" s="222" t="s">
+      <c r="E195" s="217" t="s">
         <v>558</v>
       </c>
       <c r="F195" s="82"/>
@@ -18247,19 +18247,19 @@
       <c r="F198" s="82"/>
     </row>
     <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="217" t="s">
+      <c r="A199" s="221" t="s">
         <v>559</v>
       </c>
-      <c r="B199" s="221" t="s">
+      <c r="B199" s="219" t="s">
         <v>560</v>
       </c>
-      <c r="C199" s="222" t="s">
+      <c r="C199" s="217" t="s">
         <v>561</v>
       </c>
-      <c r="D199" s="222" t="s">
+      <c r="D199" s="217" t="s">
         <v>562</v>
       </c>
-      <c r="E199" s="222" t="s">
+      <c r="E199" s="217" t="s">
         <v>563</v>
       </c>
       <c r="F199" s="82"/>
@@ -18289,19 +18289,19 @@
       <c r="F202" s="82"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="217" t="s">
+      <c r="A203" s="221" t="s">
         <v>564</v>
       </c>
-      <c r="B203" s="221" t="s">
+      <c r="B203" s="219" t="s">
         <v>565</v>
       </c>
-      <c r="C203" s="222" t="s">
+      <c r="C203" s="217" t="s">
         <v>566</v>
       </c>
-      <c r="D203" s="222" t="s">
+      <c r="D203" s="217" t="s">
         <v>567</v>
       </c>
-      <c r="E203" s="222" t="s">
+      <c r="E203" s="217" t="s">
         <v>568</v>
       </c>
       <c r="F203" s="82"/>
@@ -18332,19 +18332,223 @@
     </row>
   </sheetData>
   <mergeCells count="254">
-    <mergeCell ref="E199:E201"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="D187:D189"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="D99:D101"/>
     <mergeCell ref="E99:E101"/>
     <mergeCell ref="C99:C101"/>
@@ -18369,223 +18573,19 @@
     <mergeCell ref="A167:A169"/>
     <mergeCell ref="E191:E193"/>
     <mergeCell ref="E195:E197"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="D187:D189"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="D191:D193"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -18616,26 +18616,26 @@
       <c r="A1" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="236" t="s">
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="237" t="s">
+      <c r="F1" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="239" t="s">
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="255" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
       <c r="N1" s="27"/>
       <c r="O1" s="49"/>
     </row>
@@ -18643,60 +18643,60 @@
       <c r="A2" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="225"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="218"/>
-      <c r="D2" s="231"/>
+      <c r="D2" s="247"/>
       <c r="E2" s="218"/>
-      <c r="F2" s="240" t="s">
+      <c r="F2" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="240" t="s">
+      <c r="G2" s="256" t="s">
         <v>597</v>
       </c>
-      <c r="H2" s="240" t="s">
+      <c r="H2" s="256" t="s">
         <v>596</v>
       </c>
       <c r="I2" s="218"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
       <c r="N2" s="27"/>
       <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="225"/>
+      <c r="B3" s="222"/>
       <c r="C3" s="218"/>
-      <c r="D3" s="231"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="218"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
       <c r="I3" s="218"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
       <c r="N3" s="27"/>
       <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
+      <c r="A4" s="246"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
       <c r="N4" s="27"/>
       <c r="O4" s="49"/>
     </row>
@@ -18745,19 +18745,19 @@
       <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="224" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="223" t="s">
         <v>575</v>
       </c>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="223" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="105"/>
@@ -18775,7 +18775,7 @@
       <c r="A8" s="218"/>
       <c r="B8" s="218"/>
       <c r="C8" s="218"/>
-      <c r="D8" s="244"/>
+      <c r="D8" s="232"/>
       <c r="E8" s="218"/>
       <c r="F8" s="105"/>
       <c r="G8" s="107"/>
@@ -18792,7 +18792,7 @@
       <c r="A9" s="218"/>
       <c r="B9" s="218"/>
       <c r="C9" s="218"/>
-      <c r="D9" s="244"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="218"/>
       <c r="F9" s="108"/>
       <c r="G9" s="106"/>
@@ -18823,19 +18823,19 @@
       <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="239" t="s">
         <v>570</v>
       </c>
-      <c r="B11" s="220" t="s">
+      <c r="B11" s="223" t="s">
         <v>576</v>
       </c>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="220" t="s">
+      <c r="D11" s="223" t="s">
         <v>577</v>
       </c>
-      <c r="E11" s="220" t="s">
+      <c r="E11" s="223" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="105"/>
@@ -18846,14 +18846,14 @@
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
       <c r="M11" s="113"/>
-      <c r="N11" s="241"/>
+      <c r="N11" s="236"/>
       <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="246"/>
+      <c r="A12" s="240"/>
       <c r="B12" s="218"/>
       <c r="C12" s="218"/>
-      <c r="D12" s="244"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="218"/>
       <c r="F12" s="105"/>
       <c r="G12" s="107"/>
@@ -18863,14 +18863,14 @@
       <c r="K12" s="112"/>
       <c r="L12" s="112"/>
       <c r="M12" s="114"/>
-      <c r="N12" s="242"/>
+      <c r="N12" s="237"/>
       <c r="O12" s="49"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="247"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="218"/>
       <c r="C13" s="218"/>
-      <c r="D13" s="244"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="218"/>
       <c r="F13" s="108"/>
       <c r="G13" s="106"/>
@@ -18880,7 +18880,7 @@
       <c r="K13" s="112"/>
       <c r="L13" s="112"/>
       <c r="M13" s="115"/>
-      <c r="N13" s="243"/>
+      <c r="N13" s="238"/>
       <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18901,19 +18901,19 @@
       <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="224" t="s">
         <v>571</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="223" t="s">
         <v>574</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="223" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="223" t="s">
         <v>579</v>
       </c>
-      <c r="E15" s="220" t="s">
+      <c r="E15" s="223" t="s">
         <v>580</v>
       </c>
       <c r="F15" s="105"/>
@@ -18931,7 +18931,7 @@
       <c r="A16" s="218"/>
       <c r="B16" s="218"/>
       <c r="C16" s="218"/>
-      <c r="D16" s="244"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="218"/>
       <c r="F16" s="105"/>
       <c r="G16" s="107"/>
@@ -18948,7 +18948,7 @@
       <c r="A17" s="218"/>
       <c r="B17" s="218"/>
       <c r="C17" s="218"/>
-      <c r="D17" s="244"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="218"/>
       <c r="F17" s="108"/>
       <c r="G17" s="106"/>
@@ -18979,19 +18979,19 @@
       <c r="O18" s="49"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="224" t="s">
         <v>572</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="C19" s="248" t="s">
+      <c r="C19" s="227" t="s">
         <v>583</v>
       </c>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="223" t="s">
         <v>586</v>
       </c>
-      <c r="E19" s="220" t="s">
+      <c r="E19" s="223" t="s">
         <v>584</v>
       </c>
       <c r="F19" s="105"/>
@@ -19009,7 +19009,7 @@
       <c r="A20" s="218"/>
       <c r="B20" s="218"/>
       <c r="C20" s="218"/>
-      <c r="D20" s="244"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="218"/>
       <c r="F20" s="105"/>
       <c r="G20" s="107"/>
@@ -19026,7 +19026,7 @@
       <c r="A21" s="218"/>
       <c r="B21" s="218"/>
       <c r="C21" s="218"/>
-      <c r="D21" s="244"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="218"/>
       <c r="F21" s="108"/>
       <c r="G21" s="106"/>
@@ -19057,19 +19057,19 @@
       <c r="O22" s="49"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="223" t="s">
+      <c r="A23" s="224" t="s">
         <v>573</v>
       </c>
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="227" t="s">
         <v>587</v>
       </c>
-      <c r="C23" s="248" t="s">
+      <c r="C23" s="227" t="s">
         <v>581</v>
       </c>
-      <c r="D23" s="248" t="s">
+      <c r="D23" s="227" t="s">
         <v>585</v>
       </c>
-      <c r="E23" s="248" t="s">
+      <c r="E23" s="227" t="s">
         <v>588</v>
       </c>
       <c r="F23" s="105"/>
@@ -19087,7 +19087,7 @@
       <c r="A24" s="218"/>
       <c r="B24" s="218"/>
       <c r="C24" s="218"/>
-      <c r="D24" s="244"/>
+      <c r="D24" s="232"/>
       <c r="E24" s="218"/>
       <c r="F24" s="105"/>
       <c r="G24" s="107"/>
@@ -19104,7 +19104,7 @@
       <c r="A25" s="218"/>
       <c r="B25" s="218"/>
       <c r="C25" s="218"/>
-      <c r="D25" s="244"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="218"/>
       <c r="F25" s="108"/>
       <c r="G25" s="106"/>
@@ -19135,19 +19135,19 @@
       <c r="O26" s="49"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="249" t="s">
+      <c r="A27" s="226" t="s">
         <v>589</v>
       </c>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="227" t="s">
         <v>592</v>
       </c>
-      <c r="C27" s="248" t="s">
+      <c r="C27" s="227" t="s">
         <v>581</v>
       </c>
-      <c r="D27" s="248" t="s">
+      <c r="D27" s="227" t="s">
         <v>585</v>
       </c>
-      <c r="E27" s="248" t="s">
+      <c r="E27" s="227" t="s">
         <v>590</v>
       </c>
       <c r="F27" s="105"/>
@@ -19164,7 +19164,7 @@
       <c r="A28" s="218"/>
       <c r="B28" s="218"/>
       <c r="C28" s="218"/>
-      <c r="D28" s="244"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="218"/>
       <c r="F28" s="105"/>
       <c r="G28" s="107"/>
@@ -19180,7 +19180,7 @@
       <c r="A29" s="218"/>
       <c r="B29" s="218"/>
       <c r="C29" s="218"/>
-      <c r="D29" s="244"/>
+      <c r="D29" s="232"/>
       <c r="E29" s="218"/>
       <c r="F29" s="108"/>
       <c r="G29" s="106"/>
@@ -19209,19 +19209,19 @@
       <c r="N30" s="97"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="249" t="s">
+      <c r="A31" s="226" t="s">
         <v>591</v>
       </c>
-      <c r="B31" s="248" t="s">
+      <c r="B31" s="227" t="s">
         <v>593</v>
       </c>
-      <c r="C31" s="248" t="s">
+      <c r="C31" s="227" t="s">
         <v>581</v>
       </c>
-      <c r="D31" s="248" t="s">
+      <c r="D31" s="227" t="s">
         <v>594</v>
       </c>
-      <c r="E31" s="248" t="s">
+      <c r="E31" s="227" t="s">
         <v>595</v>
       </c>
       <c r="F31" s="105"/>
@@ -19238,7 +19238,7 @@
       <c r="A32" s="218"/>
       <c r="B32" s="218"/>
       <c r="C32" s="218"/>
-      <c r="D32" s="244"/>
+      <c r="D32" s="232"/>
       <c r="E32" s="218"/>
       <c r="F32" s="105"/>
       <c r="G32" s="107"/>
@@ -19254,7 +19254,7 @@
       <c r="A33" s="218"/>
       <c r="B33" s="218"/>
       <c r="C33" s="218"/>
-      <c r="D33" s="244"/>
+      <c r="D33" s="232"/>
       <c r="E33" s="218"/>
       <c r="F33" s="108"/>
       <c r="G33" s="106"/>
@@ -19283,19 +19283,19 @@
       <c r="N34" s="97"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="249" t="s">
+      <c r="A35" s="226" t="s">
         <v>601</v>
       </c>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="227" t="s">
         <v>598</v>
       </c>
-      <c r="C35" s="248" t="s">
+      <c r="C35" s="227" t="s">
         <v>599</v>
       </c>
-      <c r="D35" s="248" t="s">
+      <c r="D35" s="227" t="s">
         <v>610</v>
       </c>
-      <c r="E35" s="248" t="s">
+      <c r="E35" s="227" t="s">
         <v>600</v>
       </c>
       <c r="F35" s="105"/>
@@ -19312,7 +19312,7 @@
       <c r="A36" s="218"/>
       <c r="B36" s="218"/>
       <c r="C36" s="218"/>
-      <c r="D36" s="244"/>
+      <c r="D36" s="232"/>
       <c r="E36" s="218"/>
       <c r="F36" s="105"/>
       <c r="G36" s="107"/>
@@ -19328,7 +19328,7 @@
       <c r="A37" s="218"/>
       <c r="B37" s="218"/>
       <c r="C37" s="218"/>
-      <c r="D37" s="244"/>
+      <c r="D37" s="232"/>
       <c r="E37" s="218"/>
       <c r="F37" s="108"/>
       <c r="G37" s="106"/>
@@ -19357,19 +19357,19 @@
       <c r="N38" s="97"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="249" t="s">
+      <c r="A39" s="226" t="s">
         <v>602</v>
       </c>
-      <c r="B39" s="248" t="s">
+      <c r="B39" s="227" t="s">
         <v>603</v>
       </c>
-      <c r="C39" s="248" t="s">
+      <c r="C39" s="227" t="s">
         <v>581</v>
       </c>
-      <c r="D39" s="248" t="s">
+      <c r="D39" s="227" t="s">
         <v>594</v>
       </c>
-      <c r="E39" s="248" t="s">
+      <c r="E39" s="227" t="s">
         <v>608</v>
       </c>
       <c r="F39" s="105"/>
@@ -19386,7 +19386,7 @@
       <c r="A40" s="218"/>
       <c r="B40" s="218"/>
       <c r="C40" s="218"/>
-      <c r="D40" s="244"/>
+      <c r="D40" s="232"/>
       <c r="E40" s="218"/>
       <c r="F40" s="105"/>
       <c r="G40" s="107"/>
@@ -19402,7 +19402,7 @@
       <c r="A41" s="218"/>
       <c r="B41" s="218"/>
       <c r="C41" s="218"/>
-      <c r="D41" s="244"/>
+      <c r="D41" s="232"/>
       <c r="E41" s="218"/>
       <c r="F41" s="108"/>
       <c r="G41" s="106"/>
@@ -19431,19 +19431,19 @@
       <c r="N42" s="97"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="249" t="s">
+      <c r="A43" s="226" t="s">
         <v>605</v>
       </c>
-      <c r="B43" s="248" t="s">
+      <c r="B43" s="227" t="s">
         <v>630</v>
       </c>
-      <c r="C43" s="248" t="s">
+      <c r="C43" s="227" t="s">
         <v>606</v>
       </c>
-      <c r="D43" s="248" t="s">
+      <c r="D43" s="227" t="s">
         <v>609</v>
       </c>
-      <c r="E43" s="248" t="s">
+      <c r="E43" s="227" t="s">
         <v>604</v>
       </c>
       <c r="F43" s="105"/>
@@ -19460,7 +19460,7 @@
       <c r="A44" s="218"/>
       <c r="B44" s="218"/>
       <c r="C44" s="218"/>
-      <c r="D44" s="244"/>
+      <c r="D44" s="232"/>
       <c r="E44" s="218"/>
       <c r="F44" s="105"/>
       <c r="G44" s="107"/>
@@ -19476,7 +19476,7 @@
       <c r="A45" s="218"/>
       <c r="B45" s="218"/>
       <c r="C45" s="218"/>
-      <c r="D45" s="244"/>
+      <c r="D45" s="232"/>
       <c r="E45" s="218"/>
       <c r="F45" s="108"/>
       <c r="G45" s="106"/>
@@ -19505,24 +19505,24 @@
       <c r="N46" s="97"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="249" t="s">
+      <c r="A47" s="226" t="s">
         <v>622</v>
       </c>
-      <c r="B47" s="248" t="s">
+      <c r="B47" s="227" t="s">
         <v>607</v>
       </c>
-      <c r="C47" s="248" t="s">
+      <c r="C47" s="227" t="s">
         <v>606</v>
       </c>
-      <c r="D47" s="248" t="s">
+      <c r="D47" s="227" t="s">
         <v>611</v>
       </c>
-      <c r="E47" s="248" t="s">
+      <c r="E47" s="227" t="s">
         <v>612</v>
       </c>
       <c r="F47" s="105"/>
       <c r="G47" s="106"/>
-      <c r="H47" s="250" t="s">
+      <c r="H47" s="233" t="s">
         <v>613</v>
       </c>
       <c r="I47" s="41"/>
@@ -19536,11 +19536,11 @@
       <c r="A48" s="218"/>
       <c r="B48" s="218"/>
       <c r="C48" s="218"/>
-      <c r="D48" s="244"/>
+      <c r="D48" s="232"/>
       <c r="E48" s="218"/>
       <c r="F48" s="105"/>
       <c r="G48" s="107"/>
-      <c r="H48" s="251"/>
+      <c r="H48" s="234"/>
       <c r="I48" s="41"/>
       <c r="J48" s="112"/>
       <c r="K48" s="112"/>
@@ -19552,11 +19552,11 @@
       <c r="A49" s="218"/>
       <c r="B49" s="218"/>
       <c r="C49" s="218"/>
-      <c r="D49" s="244"/>
+      <c r="D49" s="232"/>
       <c r="E49" s="218"/>
       <c r="F49" s="108"/>
       <c r="G49" s="106"/>
-      <c r="H49" s="252"/>
+      <c r="H49" s="235"/>
       <c r="I49" s="41"/>
       <c r="J49" s="112"/>
       <c r="K49" s="112"/>
@@ -19581,19 +19581,19 @@
       <c r="N50" s="97"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="249" t="s">
+      <c r="A51" s="226" t="s">
         <v>621</v>
       </c>
-      <c r="B51" s="248" t="s">
+      <c r="B51" s="227" t="s">
         <v>616</v>
       </c>
-      <c r="C51" s="248" t="s">
+      <c r="C51" s="227" t="s">
         <v>606</v>
       </c>
-      <c r="D51" s="248" t="s">
+      <c r="D51" s="227" t="s">
         <v>614</v>
       </c>
-      <c r="E51" s="248" t="s">
+      <c r="E51" s="227" t="s">
         <v>635</v>
       </c>
       <c r="F51" s="116"/>
@@ -19612,7 +19612,7 @@
       <c r="A52" s="218"/>
       <c r="B52" s="218"/>
       <c r="C52" s="218"/>
-      <c r="D52" s="244"/>
+      <c r="D52" s="232"/>
       <c r="E52" s="218"/>
       <c r="F52" s="116"/>
       <c r="G52" s="118"/>
@@ -19630,7 +19630,7 @@
       <c r="A53" s="218"/>
       <c r="B53" s="218"/>
       <c r="C53" s="218"/>
-      <c r="D53" s="244"/>
+      <c r="D53" s="232"/>
       <c r="E53" s="218"/>
       <c r="F53" s="119"/>
       <c r="G53" s="117"/>
@@ -19659,19 +19659,19 @@
       <c r="N54" s="97"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="249" t="s">
+      <c r="A55" s="226" t="s">
         <v>623</v>
       </c>
-      <c r="B55" s="248" t="s">
+      <c r="B55" s="227" t="s">
         <v>617</v>
       </c>
-      <c r="C55" s="248" t="s">
+      <c r="C55" s="227" t="s">
         <v>606</v>
       </c>
-      <c r="D55" s="248" t="s">
+      <c r="D55" s="227" t="s">
         <v>618</v>
       </c>
-      <c r="E55" s="248" t="s">
+      <c r="E55" s="227" t="s">
         <v>619</v>
       </c>
       <c r="F55" s="116"/>
@@ -19690,7 +19690,7 @@
       <c r="A56" s="218"/>
       <c r="B56" s="218"/>
       <c r="C56" s="218"/>
-      <c r="D56" s="244"/>
+      <c r="D56" s="232"/>
       <c r="E56" s="218"/>
       <c r="F56" s="116"/>
       <c r="G56" s="125"/>
@@ -19706,7 +19706,7 @@
       <c r="A57" s="218"/>
       <c r="B57" s="218"/>
       <c r="C57" s="218"/>
-      <c r="D57" s="244"/>
+      <c r="D57" s="232"/>
       <c r="E57" s="218"/>
       <c r="F57" s="119"/>
       <c r="G57" s="117"/>
@@ -19735,24 +19735,24 @@
       <c r="N58" s="97"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="249" t="s">
+      <c r="A59" s="226" t="s">
         <v>624</v>
       </c>
-      <c r="B59" s="248" t="s">
+      <c r="B59" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="C59" s="248" t="s">
+      <c r="C59" s="227" t="s">
         <v>626</v>
       </c>
-      <c r="D59" s="248" t="s">
+      <c r="D59" s="227" t="s">
         <v>627</v>
       </c>
-      <c r="E59" s="248" t="s">
+      <c r="E59" s="227" t="s">
         <v>83</v>
       </c>
       <c r="F59" s="116"/>
       <c r="G59" s="117"/>
-      <c r="H59" s="250" t="s">
+      <c r="H59" s="233" t="s">
         <v>628</v>
       </c>
       <c r="I59" s="120"/>
@@ -19766,11 +19766,11 @@
       <c r="A60" s="218"/>
       <c r="B60" s="218"/>
       <c r="C60" s="218"/>
-      <c r="D60" s="244"/>
+      <c r="D60" s="232"/>
       <c r="E60" s="218"/>
       <c r="F60" s="116"/>
       <c r="G60" s="118"/>
-      <c r="H60" s="251"/>
+      <c r="H60" s="234"/>
       <c r="I60" s="120"/>
       <c r="J60" s="122"/>
       <c r="K60" s="122"/>
@@ -19782,11 +19782,11 @@
       <c r="A61" s="218"/>
       <c r="B61" s="218"/>
       <c r="C61" s="218"/>
-      <c r="D61" s="244"/>
+      <c r="D61" s="232"/>
       <c r="E61" s="218"/>
       <c r="F61" s="119"/>
       <c r="G61" s="117"/>
-      <c r="H61" s="252"/>
+      <c r="H61" s="235"/>
       <c r="I61" s="120"/>
       <c r="J61" s="122"/>
       <c r="K61" s="122"/>
@@ -19811,19 +19811,19 @@
       <c r="N62" s="97"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="249" t="s">
+      <c r="A63" s="226" t="s">
         <v>629</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="227" t="s">
         <v>631</v>
       </c>
-      <c r="C63" s="248" t="s">
+      <c r="C63" s="227" t="s">
         <v>632</v>
       </c>
-      <c r="D63" s="248" t="s">
+      <c r="D63" s="227" t="s">
         <v>633</v>
       </c>
-      <c r="E63" s="248" t="s">
+      <c r="E63" s="227" t="s">
         <v>634</v>
       </c>
       <c r="F63" s="116"/>
@@ -19842,7 +19842,7 @@
       <c r="A64" s="218"/>
       <c r="B64" s="218"/>
       <c r="C64" s="218"/>
-      <c r="D64" s="244"/>
+      <c r="D64" s="232"/>
       <c r="E64" s="218"/>
       <c r="F64" s="116"/>
       <c r="G64" s="118" t="s">
@@ -19860,7 +19860,7 @@
       <c r="A65" s="218"/>
       <c r="B65" s="218"/>
       <c r="C65" s="218"/>
-      <c r="D65" s="244"/>
+      <c r="D65" s="232"/>
       <c r="E65" s="218"/>
       <c r="F65" s="119"/>
       <c r="G65" s="117"/>
@@ -19889,19 +19889,19 @@
       <c r="N66" s="97"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="249" t="s">
+      <c r="A67" s="226" t="s">
         <v>637</v>
       </c>
-      <c r="B67" s="248" t="s">
+      <c r="B67" s="227" t="s">
         <v>644</v>
       </c>
-      <c r="C67" s="248" t="s">
+      <c r="C67" s="227" t="s">
         <v>638</v>
       </c>
-      <c r="D67" s="248" t="s">
+      <c r="D67" s="227" t="s">
         <v>639</v>
       </c>
-      <c r="E67" s="248" t="s">
+      <c r="E67" s="227" t="s">
         <v>640</v>
       </c>
       <c r="F67" s="116" t="s">
@@ -19924,7 +19924,7 @@
       <c r="A68" s="218"/>
       <c r="B68" s="218"/>
       <c r="C68" s="218"/>
-      <c r="D68" s="244"/>
+      <c r="D68" s="232"/>
       <c r="E68" s="218"/>
       <c r="F68" s="116"/>
       <c r="G68" s="118"/>
@@ -19940,7 +19940,7 @@
       <c r="A69" s="218"/>
       <c r="B69" s="218"/>
       <c r="C69" s="218"/>
-      <c r="D69" s="244"/>
+      <c r="D69" s="232"/>
       <c r="E69" s="218"/>
       <c r="F69" s="119"/>
       <c r="G69" s="117"/>
@@ -19969,19 +19969,19 @@
       <c r="N70" s="97"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="249" t="s">
+      <c r="A71" s="226" t="s">
         <v>643</v>
       </c>
-      <c r="B71" s="248" t="s">
+      <c r="B71" s="227" t="s">
         <v>656</v>
       </c>
-      <c r="C71" s="253" t="s">
+      <c r="C71" s="228" t="s">
         <v>664</v>
       </c>
-      <c r="D71" s="256" t="s">
+      <c r="D71" s="231" t="s">
         <v>662</v>
       </c>
-      <c r="E71" s="207" t="s">
+      <c r="E71" s="203" t="s">
         <v>663</v>
       </c>
       <c r="F71" s="116"/>
@@ -19997,8 +19997,8 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="218"/>
       <c r="B72" s="218"/>
-      <c r="C72" s="254"/>
-      <c r="D72" s="254"/>
+      <c r="C72" s="229"/>
+      <c r="D72" s="229"/>
       <c r="E72" s="187"/>
       <c r="F72" s="118"/>
       <c r="G72" s="118"/>
@@ -20013,8 +20013,8 @@
     <row r="73" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="218"/>
       <c r="B73" s="218"/>
-      <c r="C73" s="255"/>
-      <c r="D73" s="255"/>
+      <c r="C73" s="230"/>
+      <c r="D73" s="230"/>
       <c r="E73" s="187"/>
       <c r="F73" s="133"/>
       <c r="G73" s="117"/>
@@ -20043,19 +20043,19 @@
       <c r="N74" s="97"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="249" t="s">
+      <c r="A75" s="226" t="s">
         <v>647</v>
       </c>
-      <c r="B75" s="248" t="s">
+      <c r="B75" s="227" t="s">
         <v>660</v>
       </c>
-      <c r="C75" s="253" t="s">
+      <c r="C75" s="228" t="s">
         <v>661</v>
       </c>
-      <c r="D75" s="256" t="s">
+      <c r="D75" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="E75" s="207" t="s">
+      <c r="E75" s="203" t="s">
         <v>123</v>
       </c>
       <c r="F75" s="116"/>
@@ -20071,8 +20071,8 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="218"/>
       <c r="B76" s="218"/>
-      <c r="C76" s="254"/>
-      <c r="D76" s="254"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="229"/>
       <c r="E76" s="187"/>
       <c r="F76" s="118"/>
       <c r="G76" s="118"/>
@@ -20087,8 +20087,8 @@
     <row r="77" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="218"/>
       <c r="B77" s="218"/>
-      <c r="C77" s="255"/>
-      <c r="D77" s="255"/>
+      <c r="C77" s="230"/>
+      <c r="D77" s="230"/>
       <c r="E77" s="187"/>
       <c r="F77" s="133"/>
       <c r="G77" s="117"/>
@@ -20117,19 +20117,19 @@
       <c r="N78" s="97"/>
     </row>
     <row r="79" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="249" t="s">
+      <c r="A79" s="226" t="s">
         <v>648</v>
       </c>
-      <c r="B79" s="248" t="s">
+      <c r="B79" s="227" t="s">
         <v>657</v>
       </c>
-      <c r="C79" s="253" t="s">
+      <c r="C79" s="228" t="s">
         <v>665</v>
       </c>
-      <c r="D79" s="256" t="s">
+      <c r="D79" s="231" t="s">
         <v>668</v>
       </c>
-      <c r="E79" s="207" t="s">
+      <c r="E79" s="203" t="s">
         <v>672</v>
       </c>
       <c r="F79" s="118" t="s">
@@ -20147,8 +20147,8 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="218"/>
       <c r="B80" s="218"/>
-      <c r="C80" s="254"/>
-      <c r="D80" s="254"/>
+      <c r="C80" s="229"/>
+      <c r="D80" s="229"/>
       <c r="E80" s="187"/>
       <c r="F80" s="118"/>
       <c r="G80" s="118"/>
@@ -20163,8 +20163,8 @@
     <row r="81" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="218"/>
       <c r="B81" s="218"/>
-      <c r="C81" s="255"/>
-      <c r="D81" s="255"/>
+      <c r="C81" s="230"/>
+      <c r="D81" s="230"/>
       <c r="E81" s="187"/>
       <c r="F81" s="133"/>
       <c r="G81" s="117"/>
@@ -20193,19 +20193,19 @@
       <c r="N82" s="97"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="249" t="s">
+      <c r="A83" s="226" t="s">
         <v>649</v>
       </c>
-      <c r="B83" s="248" t="s">
+      <c r="B83" s="227" t="s">
         <v>658</v>
       </c>
-      <c r="C83" s="253" t="s">
+      <c r="C83" s="228" t="s">
         <v>665</v>
       </c>
-      <c r="D83" s="256" t="s">
+      <c r="D83" s="231" t="s">
         <v>667</v>
       </c>
-      <c r="E83" s="207" t="s">
+      <c r="E83" s="203" t="s">
         <v>197</v>
       </c>
       <c r="F83" s="116" t="s">
@@ -20223,8 +20223,8 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="218"/>
       <c r="B84" s="218"/>
-      <c r="C84" s="254"/>
-      <c r="D84" s="254"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="229"/>
       <c r="E84" s="187"/>
       <c r="F84" s="118"/>
       <c r="G84" s="118"/>
@@ -20239,8 +20239,8 @@
     <row r="85" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="218"/>
       <c r="B85" s="218"/>
-      <c r="C85" s="255"/>
-      <c r="D85" s="255"/>
+      <c r="C85" s="230"/>
+      <c r="D85" s="230"/>
       <c r="E85" s="187"/>
       <c r="F85" s="133"/>
       <c r="G85" s="117"/>
@@ -20269,19 +20269,19 @@
       <c r="N86" s="97"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="249" t="s">
+      <c r="A87" s="226" t="s">
         <v>655</v>
       </c>
-      <c r="B87" s="248" t="s">
+      <c r="B87" s="227" t="s">
         <v>659</v>
       </c>
-      <c r="C87" s="253" t="s">
+      <c r="C87" s="228" t="s">
         <v>666</v>
       </c>
-      <c r="D87" s="256" t="s">
+      <c r="D87" s="231" t="s">
         <v>670</v>
       </c>
-      <c r="E87" s="207" t="s">
+      <c r="E87" s="203" t="s">
         <v>671</v>
       </c>
       <c r="F87" s="116" t="s">
@@ -20299,8 +20299,8 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="218"/>
       <c r="B88" s="218"/>
-      <c r="C88" s="254"/>
-      <c r="D88" s="254"/>
+      <c r="C88" s="229"/>
+      <c r="D88" s="229"/>
       <c r="E88" s="187"/>
       <c r="F88" s="118"/>
       <c r="G88" s="118"/>
@@ -20315,8 +20315,8 @@
     <row r="89" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="218"/>
       <c r="B89" s="218"/>
-      <c r="C89" s="255"/>
-      <c r="D89" s="255"/>
+      <c r="C89" s="230"/>
+      <c r="D89" s="230"/>
       <c r="E89" s="187"/>
       <c r="F89" s="133"/>
       <c r="G89" s="117"/>
@@ -20787,36 +20787,77 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
     <mergeCell ref="H47:H49"/>
     <mergeCell ref="H59:H61"/>
     <mergeCell ref="A59:A61"/>
@@ -20839,77 +20880,36 @@
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:H6 J6:M9">
     <cfRule type="cellIs" dxfId="369" priority="131" stopIfTrue="1" operator="equal">
@@ -21914,37 +21914,37 @@
       <c r="A1" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="244"/>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
+      <c r="A4" s="232"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="129"/>
@@ -21971,19 +21971,19 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="224" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="223" t="s">
         <v>575</v>
       </c>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22009,19 +22009,19 @@
       <c r="E10" s="131"/>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="223" t="s">
+      <c r="A11" s="224" t="s">
         <v>570</v>
       </c>
-      <c r="B11" s="220" t="s">
+      <c r="B11" s="223" t="s">
         <v>576</v>
       </c>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="220" t="s">
+      <c r="D11" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E11" s="220" t="s">
+      <c r="E11" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22047,19 +22047,19 @@
       <c r="E14" s="131"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="224" t="s">
         <v>571</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="223" t="s">
         <v>574</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="223" t="s">
         <v>580</v>
       </c>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="220" t="s">
+      <c r="E15" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22085,19 +22085,19 @@
       <c r="E18" s="131"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="224" t="s">
         <v>572</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="223" t="s">
         <v>584</v>
       </c>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E19" s="220" t="s">
+      <c r="E19" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22123,19 +22123,19 @@
       <c r="E22" s="131"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="223" t="s">
+      <c r="A23" s="224" t="s">
         <v>573</v>
       </c>
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="227" t="s">
         <v>587</v>
       </c>
-      <c r="C23" s="248" t="s">
+      <c r="C23" s="227" t="s">
         <v>588</v>
       </c>
-      <c r="D23" s="220" t="s">
+      <c r="D23" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E23" s="220" t="s">
+      <c r="E23" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22161,19 +22161,19 @@
       <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="223" t="s">
+      <c r="A27" s="224" t="s">
         <v>589</v>
       </c>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="227" t="s">
         <v>592</v>
       </c>
-      <c r="C27" s="248" t="s">
+      <c r="C27" s="227" t="s">
         <v>590</v>
       </c>
-      <c r="D27" s="220" t="s">
+      <c r="D27" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E27" s="220" t="s">
+      <c r="E27" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22199,19 +22199,19 @@
       <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="224" t="s">
         <v>591</v>
       </c>
-      <c r="B31" s="248" t="s">
+      <c r="B31" s="227" t="s">
         <v>593</v>
       </c>
-      <c r="C31" s="248" t="s">
+      <c r="C31" s="227" t="s">
         <v>595</v>
       </c>
-      <c r="D31" s="220" t="s">
+      <c r="D31" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E31" s="220" t="s">
+      <c r="E31" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22237,19 +22237,19 @@
       <c r="E34" s="131"/>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="223" t="s">
+      <c r="A35" s="224" t="s">
         <v>601</v>
       </c>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="227" t="s">
         <v>598</v>
       </c>
-      <c r="C35" s="248" t="s">
+      <c r="C35" s="227" t="s">
         <v>600</v>
       </c>
-      <c r="D35" s="220" t="s">
+      <c r="D35" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E35" s="220" t="s">
+      <c r="E35" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22275,19 +22275,19 @@
       <c r="E38" s="131"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="224" t="s">
         <v>602</v>
       </c>
-      <c r="B39" s="248" t="s">
+      <c r="B39" s="227" t="s">
         <v>603</v>
       </c>
-      <c r="C39" s="248" t="s">
+      <c r="C39" s="227" t="s">
         <v>608</v>
       </c>
-      <c r="D39" s="220" t="s">
+      <c r="D39" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E39" s="220" t="s">
+      <c r="E39" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22313,19 +22313,19 @@
       <c r="E42" s="131"/>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="223" t="s">
+      <c r="A43" s="224" t="s">
         <v>605</v>
       </c>
-      <c r="B43" s="248" t="s">
+      <c r="B43" s="227" t="s">
         <v>630</v>
       </c>
-      <c r="C43" s="248" t="s">
+      <c r="C43" s="227" t="s">
         <v>604</v>
       </c>
-      <c r="D43" s="220" t="s">
+      <c r="D43" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E43" s="220" t="s">
+      <c r="E43" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22351,19 +22351,19 @@
       <c r="E46" s="131"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="223" t="s">
+      <c r="A47" s="224" t="s">
         <v>622</v>
       </c>
-      <c r="B47" s="248" t="s">
+      <c r="B47" s="227" t="s">
         <v>607</v>
       </c>
-      <c r="C47" s="248" t="s">
+      <c r="C47" s="227" t="s">
         <v>612</v>
       </c>
-      <c r="D47" s="220" t="s">
+      <c r="D47" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E47" s="220" t="s">
+      <c r="E47" s="223" t="s">
         <v>650</v>
       </c>
     </row>
@@ -22389,19 +22389,19 @@
       <c r="E50" s="131"/>
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="223" t="s">
+      <c r="A51" s="224" t="s">
         <v>621</v>
       </c>
-      <c r="B51" s="248" t="s">
+      <c r="B51" s="227" t="s">
         <v>616</v>
       </c>
-      <c r="C51" s="248" t="s">
+      <c r="C51" s="227" t="s">
         <v>635</v>
       </c>
-      <c r="D51" s="220" t="s">
+      <c r="D51" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E51" s="220" t="s">
+      <c r="E51" s="223" t="s">
         <v>651</v>
       </c>
     </row>
@@ -22427,19 +22427,19 @@
       <c r="E54" s="131"/>
     </row>
     <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="223" t="s">
+      <c r="A55" s="224" t="s">
         <v>623</v>
       </c>
-      <c r="B55" s="248" t="s">
+      <c r="B55" s="227" t="s">
         <v>617</v>
       </c>
-      <c r="C55" s="248" t="s">
+      <c r="C55" s="227" t="s">
         <v>619</v>
       </c>
-      <c r="D55" s="220" t="s">
+      <c r="D55" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E55" s="220" t="s">
+      <c r="E55" s="223" t="s">
         <v>652</v>
       </c>
     </row>
@@ -22465,19 +22465,19 @@
       <c r="E58" s="131"/>
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="223" t="s">
+      <c r="A59" s="224" t="s">
         <v>624</v>
       </c>
-      <c r="B59" s="248" t="s">
+      <c r="B59" s="227" t="s">
         <v>625</v>
       </c>
-      <c r="C59" s="248" t="s">
+      <c r="C59" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="220" t="s">
+      <c r="D59" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E59" s="220" t="s">
+      <c r="E59" s="223" t="s">
         <v>653</v>
       </c>
     </row>
@@ -22503,19 +22503,19 @@
       <c r="E62" s="131"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="223" t="s">
+      <c r="A63" s="224" t="s">
         <v>629</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="227" t="s">
         <v>631</v>
       </c>
-      <c r="C63" s="248" t="s">
+      <c r="C63" s="227" t="s">
         <v>634</v>
       </c>
-      <c r="D63" s="220" t="s">
+      <c r="D63" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E63" s="220" t="s">
+      <c r="E63" s="223" t="s">
         <v>654</v>
       </c>
     </row>
@@ -22541,19 +22541,19 @@
       <c r="E66" s="131"/>
     </row>
     <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="223" t="s">
+      <c r="A67" s="224" t="s">
         <v>637</v>
       </c>
-      <c r="B67" s="248" t="s">
+      <c r="B67" s="227" t="s">
         <v>644</v>
       </c>
-      <c r="C67" s="248" t="s">
+      <c r="C67" s="227" t="s">
         <v>640</v>
       </c>
-      <c r="D67" s="220" t="s">
+      <c r="D67" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E67" s="220" t="s">
+      <c r="E67" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22579,19 +22579,19 @@
       <c r="E70" s="131"/>
     </row>
     <row r="71" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="223" t="s">
+      <c r="A71" s="224" t="s">
         <v>643</v>
       </c>
-      <c r="B71" s="248" t="s">
+      <c r="B71" s="227" t="s">
         <v>656</v>
       </c>
-      <c r="C71" s="248" t="s">
+      <c r="C71" s="227" t="s">
         <v>663</v>
       </c>
-      <c r="D71" s="220" t="s">
+      <c r="D71" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E71" s="220" t="s">
+      <c r="E71" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22617,19 +22617,19 @@
       <c r="E74" s="131"/>
     </row>
     <row r="75" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="223" t="s">
+      <c r="A75" s="224" t="s">
         <v>647</v>
       </c>
-      <c r="B75" s="248" t="s">
+      <c r="B75" s="227" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="192" t="s">
+      <c r="C75" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="220" t="s">
+      <c r="D75" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E75" s="220" t="s">
+      <c r="E75" s="223" t="s">
         <v>676</v>
       </c>
     </row>
@@ -22655,19 +22655,19 @@
       <c r="E78" s="131"/>
     </row>
     <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="223" t="s">
+      <c r="A79" s="224" t="s">
         <v>648</v>
       </c>
-      <c r="B79" s="221" t="s">
+      <c r="B79" s="219" t="s">
         <v>657</v>
       </c>
-      <c r="C79" s="260" t="s">
+      <c r="C79" s="257" t="s">
         <v>672</v>
       </c>
-      <c r="D79" s="220" t="s">
+      <c r="D79" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E79" s="220" t="s">
+      <c r="E79" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22693,19 +22693,19 @@
       <c r="E82" s="131"/>
     </row>
     <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="223" t="s">
+      <c r="A83" s="224" t="s">
         <v>649</v>
       </c>
-      <c r="B83" s="221" t="s">
+      <c r="B83" s="219" t="s">
         <v>658</v>
       </c>
-      <c r="C83" s="260" t="s">
+      <c r="C83" s="257" t="s">
         <v>197</v>
       </c>
-      <c r="D83" s="220" t="s">
+      <c r="D83" s="223" t="s">
         <v>360</v>
       </c>
-      <c r="E83" s="220" t="s">
+      <c r="E83" s="223" t="s">
         <v>673</v>
       </c>
     </row>
@@ -22731,19 +22731,19 @@
       <c r="E86" s="131"/>
     </row>
     <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="223" t="s">
+      <c r="A87" s="224" t="s">
         <v>655</v>
       </c>
-      <c r="B87" s="221" t="s">
+      <c r="B87" s="219" t="s">
         <v>659</v>
       </c>
-      <c r="C87" s="260" t="s">
+      <c r="C87" s="257" t="s">
         <v>671</v>
       </c>
-      <c r="D87" s="220" t="s">
+      <c r="D87" s="223" t="s">
         <v>325</v>
       </c>
-      <c r="E87" s="220" t="s">
+      <c r="E87" s="223" t="s">
         <v>326</v>
       </c>
     </row>
@@ -22886,6 +22886,105 @@
     <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="C83:C85"/>
@@ -22896,105 +22995,6 @@
     <mergeCell ref="C87:C89"/>
     <mergeCell ref="D87:D89"/>
     <mergeCell ref="E87:E89"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -23004,8 +23004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23028,78 +23028,78 @@
       <c r="A1" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="272" t="s">
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="240" t="s">
+      <c r="F1" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="226" t="s">
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
       <c r="N1" s="141"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
       <c r="N2" s="141"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
       <c r="N3" s="141"/>
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="273"/>
-      <c r="B4" s="273"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276"/>
+      <c r="A4" s="275"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
       <c r="N4" s="141"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -23137,7 +23137,7 @@
       <c r="F6" s="145"/>
       <c r="G6" s="145"/>
       <c r="H6" s="159"/>
-      <c r="I6" s="267"/>
+      <c r="I6" s="279"/>
       <c r="J6" s="161"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
@@ -23145,25 +23145,25 @@
       <c r="N6" s="147"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="219" t="s">
         <v>677</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="223" t="s">
         <v>678</v>
       </c>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="223" t="s">
         <v>679</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="223" t="s">
         <v>680</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="223" t="s">
         <v>681</v>
       </c>
       <c r="F7" s="105"/>
       <c r="G7" s="107"/>
       <c r="H7" s="160"/>
-      <c r="I7" s="268"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="162"/>
       <c r="K7" s="111"/>
       <c r="L7" s="111"/>
@@ -23171,15 +23171,15 @@
       <c r="N7" s="141"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="271"/>
-      <c r="B8" s="271"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="271"/>
-      <c r="E8" s="271"/>
+      <c r="A8" s="261"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
       <c r="F8" s="105"/>
       <c r="G8" s="107"/>
       <c r="H8" s="160"/>
-      <c r="I8" s="268"/>
+      <c r="I8" s="280"/>
       <c r="J8" s="162"/>
       <c r="K8" s="111"/>
       <c r="L8" s="111"/>
@@ -23187,15 +23187,15 @@
       <c r="N8" s="141"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="271"/>
-      <c r="B9" s="271"/>
-      <c r="C9" s="271"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="271"/>
+      <c r="A9" s="261"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
       <c r="F9" s="105"/>
       <c r="G9" s="107"/>
       <c r="H9" s="160"/>
-      <c r="I9" s="269"/>
+      <c r="I9" s="281"/>
       <c r="J9" s="162"/>
       <c r="K9" s="111"/>
       <c r="L9" s="111"/>
@@ -23219,62 +23219,62 @@
       <c r="N10" s="144"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="264" t="s">
+      <c r="A11" s="276" t="s">
         <v>685</v>
       </c>
-      <c r="B11" s="281" t="s">
+      <c r="B11" s="266" t="s">
         <v>682</v>
       </c>
-      <c r="C11" s="281" t="s">
+      <c r="C11" s="266" t="s">
         <v>679</v>
       </c>
-      <c r="D11" s="281" t="s">
+      <c r="D11" s="266" t="s">
         <v>683</v>
       </c>
-      <c r="E11" s="281" t="s">
+      <c r="E11" s="266" t="s">
         <v>684</v>
       </c>
       <c r="F11" s="105"/>
       <c r="G11" s="107"/>
       <c r="H11" s="107"/>
-      <c r="I11" s="261"/>
+      <c r="I11" s="269"/>
       <c r="J11" s="111"/>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
       <c r="M11" s="113"/>
-      <c r="N11" s="278"/>
+      <c r="N11" s="263"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="265"/>
-      <c r="B12" s="282"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
+      <c r="A12" s="277"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="267"/>
       <c r="F12" s="105"/>
       <c r="G12" s="107"/>
       <c r="H12" s="107"/>
-      <c r="I12" s="262"/>
+      <c r="I12" s="270"/>
       <c r="J12" s="111"/>
       <c r="K12" s="111"/>
       <c r="L12" s="111"/>
       <c r="M12" s="148"/>
-      <c r="N12" s="279"/>
+      <c r="N12" s="264"/>
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="266"/>
-      <c r="B13" s="283"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
+      <c r="A13" s="278"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
       <c r="F13" s="149"/>
       <c r="G13" s="150"/>
       <c r="H13" s="150"/>
-      <c r="I13" s="263"/>
+      <c r="I13" s="271"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="151"/>
       <c r="M13" s="152"/>
-      <c r="N13" s="280"/>
+      <c r="N13" s="265"/>
     </row>
     <row r="14" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="158"/>
@@ -23293,25 +23293,25 @@
       <c r="N14" s="144"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="219" t="s">
         <v>686</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="223" t="s">
         <v>687</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="223" t="s">
         <v>688</v>
       </c>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="223" t="s">
         <v>689</v>
       </c>
-      <c r="E15" s="220" t="s">
+      <c r="E15" s="223" t="s">
         <v>690</v>
       </c>
       <c r="F15" s="153"/>
       <c r="G15" s="153"/>
       <c r="H15" s="153"/>
-      <c r="I15" s="261"/>
+      <c r="I15" s="269"/>
       <c r="J15" s="154"/>
       <c r="K15" s="154"/>
       <c r="L15" s="154"/>
@@ -23319,15 +23319,15 @@
       <c r="N15" s="141"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="271"/>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
+      <c r="A16" s="261"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
       <c r="H16" s="153"/>
-      <c r="I16" s="262"/>
+      <c r="I16" s="270"/>
       <c r="J16" s="154"/>
       <c r="K16" s="154"/>
       <c r="L16" s="154"/>
@@ -23335,15 +23335,15 @@
       <c r="N16" s="141"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
+      <c r="A17" s="261"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
       <c r="H17" s="153"/>
-      <c r="I17" s="263"/>
+      <c r="I17" s="271"/>
       <c r="J17" s="154"/>
       <c r="K17" s="154"/>
       <c r="L17" s="154"/>
@@ -23367,62 +23367,62 @@
       <c r="N18" s="144"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="219" t="s">
         <v>691</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="223" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" s="223" t="s">
+        <v>688</v>
+      </c>
+      <c r="D19" s="223" t="s">
         <v>692</v>
       </c>
-      <c r="C19" s="220" t="s">
-        <v>688</v>
-      </c>
-      <c r="D19" s="220" t="s">
+      <c r="E19" s="223" t="s">
         <v>693</v>
-      </c>
-      <c r="E19" s="220" t="s">
-        <v>694</v>
       </c>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
       <c r="H19" s="153"/>
-      <c r="I19" s="261"/>
+      <c r="I19" s="269"/>
       <c r="J19" s="154"/>
       <c r="K19" s="154"/>
       <c r="L19" s="154"/>
       <c r="M19" s="154"/>
-      <c r="N19" s="278"/>
+      <c r="N19" s="263"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="271"/>
-      <c r="B20" s="271"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
+      <c r="A20" s="261"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
       <c r="F20" s="153"/>
       <c r="G20" s="153"/>
       <c r="H20" s="153"/>
-      <c r="I20" s="262"/>
+      <c r="I20" s="270"/>
       <c r="J20" s="154"/>
       <c r="K20" s="154"/>
       <c r="L20" s="154"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="279"/>
+      <c r="N20" s="264"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="271"/>
-      <c r="B21" s="271"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="271"/>
-      <c r="E21" s="271"/>
+      <c r="A21" s="261"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
       <c r="F21" s="153"/>
       <c r="G21" s="153"/>
       <c r="H21" s="153"/>
-      <c r="I21" s="263"/>
+      <c r="I21" s="271"/>
       <c r="J21" s="154"/>
       <c r="K21" s="154"/>
       <c r="L21" s="154"/>
       <c r="M21" s="154"/>
-      <c r="N21" s="280"/>
+      <c r="N21" s="265"/>
     </row>
     <row r="22" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="158"/>
@@ -23441,25 +23441,25 @@
       <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="221" t="s">
+      <c r="A23" s="219" t="s">
+        <v>694</v>
+      </c>
+      <c r="B23" s="223" t="s">
         <v>695</v>
       </c>
-      <c r="B23" s="220" t="s">
+      <c r="C23" s="223" t="s">
         <v>696</v>
       </c>
-      <c r="C23" s="220" t="s">
+      <c r="D23" s="223" t="s">
         <v>697</v>
       </c>
-      <c r="D23" s="220" t="s">
+      <c r="E23" s="223" t="s">
         <v>698</v>
-      </c>
-      <c r="E23" s="220" t="s">
-        <v>699</v>
       </c>
       <c r="F23" s="153"/>
       <c r="G23" s="153"/>
       <c r="H23" s="153"/>
-      <c r="I23" s="261"/>
+      <c r="I23" s="269"/>
       <c r="J23" s="154"/>
       <c r="K23" s="154"/>
       <c r="L23" s="154"/>
@@ -23467,15 +23467,15 @@
       <c r="N23" s="141"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="271"/>
-      <c r="B24" s="271"/>
-      <c r="C24" s="271"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="271"/>
+      <c r="A24" s="261"/>
+      <c r="B24" s="261"/>
+      <c r="C24" s="261"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="261"/>
       <c r="F24" s="153"/>
       <c r="G24" s="153"/>
       <c r="H24" s="153"/>
-      <c r="I24" s="262"/>
+      <c r="I24" s="270"/>
       <c r="J24" s="154"/>
       <c r="K24" s="154"/>
       <c r="L24" s="154"/>
@@ -23483,15 +23483,15 @@
       <c r="N24" s="141"/>
     </row>
     <row r="25" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="271"/>
-      <c r="B25" s="271"/>
-      <c r="C25" s="271"/>
-      <c r="D25" s="271"/>
-      <c r="E25" s="271"/>
+      <c r="A25" s="261"/>
+      <c r="B25" s="261"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
       <c r="F25" s="153"/>
       <c r="G25" s="153"/>
       <c r="H25" s="153"/>
-      <c r="I25" s="263"/>
+      <c r="I25" s="271"/>
       <c r="J25" s="154"/>
       <c r="K25" s="154"/>
       <c r="L25" s="154"/>
@@ -23515,62 +23515,62 @@
       <c r="N26" s="144"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="221" t="s">
+      <c r="A27" s="219" t="s">
+        <v>699</v>
+      </c>
+      <c r="B27" s="223" t="s">
         <v>700</v>
       </c>
-      <c r="B27" s="220" t="s">
+      <c r="C27" s="223" t="s">
         <v>701</v>
       </c>
-      <c r="C27" s="220" t="s">
+      <c r="D27" s="223" t="s">
         <v>702</v>
       </c>
-      <c r="D27" s="220" t="s">
+      <c r="E27" s="223" t="s">
         <v>703</v>
-      </c>
-      <c r="E27" s="220" t="s">
-        <v>704</v>
       </c>
       <c r="F27" s="153"/>
       <c r="G27" s="153"/>
       <c r="H27" s="153"/>
-      <c r="I27" s="261"/>
+      <c r="I27" s="269"/>
       <c r="J27" s="154"/>
       <c r="K27" s="154"/>
       <c r="L27" s="154"/>
       <c r="M27" s="154"/>
-      <c r="N27" s="278"/>
+      <c r="N27" s="263"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="271"/>
-      <c r="B28" s="271"/>
-      <c r="C28" s="271"/>
-      <c r="D28" s="271"/>
-      <c r="E28" s="271"/>
+      <c r="A28" s="261"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
       <c r="F28" s="153"/>
       <c r="G28" s="153"/>
       <c r="H28" s="153"/>
-      <c r="I28" s="262"/>
+      <c r="I28" s="270"/>
       <c r="J28" s="154"/>
       <c r="K28" s="154"/>
       <c r="L28" s="154"/>
       <c r="M28" s="154"/>
-      <c r="N28" s="279"/>
+      <c r="N28" s="264"/>
     </row>
     <row r="29" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="271"/>
-      <c r="B29" s="271"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="271"/>
-      <c r="E29" s="271"/>
+      <c r="A29" s="261"/>
+      <c r="B29" s="261"/>
+      <c r="C29" s="261"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
       <c r="F29" s="153"/>
       <c r="G29" s="153"/>
       <c r="H29" s="153"/>
-      <c r="I29" s="263"/>
+      <c r="I29" s="271"/>
       <c r="J29" s="154"/>
       <c r="K29" s="154"/>
       <c r="L29" s="154"/>
       <c r="M29" s="154"/>
-      <c r="N29" s="280"/>
+      <c r="N29" s="265"/>
     </row>
     <row r="30" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="158"/>
@@ -23589,25 +23589,25 @@
       <c r="N30" s="144"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="284" t="s">
+      <c r="A31" s="262" t="s">
+        <v>704</v>
+      </c>
+      <c r="B31" s="223" t="s">
         <v>705</v>
       </c>
-      <c r="B31" s="220" t="s">
+      <c r="C31" s="223" t="s">
         <v>706</v>
       </c>
-      <c r="C31" s="220" t="s">
+      <c r="D31" s="223" t="s">
         <v>707</v>
       </c>
-      <c r="D31" s="220" t="s">
+      <c r="E31" s="227" t="s">
         <v>708</v>
-      </c>
-      <c r="E31" s="248" t="s">
-        <v>709</v>
       </c>
       <c r="F31" s="153"/>
       <c r="G31" s="153"/>
       <c r="H31" s="153"/>
-      <c r="I31" s="261"/>
+      <c r="I31" s="269"/>
       <c r="J31" s="154"/>
       <c r="K31" s="154"/>
       <c r="L31" s="154"/>
@@ -23615,15 +23615,15 @@
       <c r="N31" s="141"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="271"/>
-      <c r="B32" s="271"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
+      <c r="A32" s="261"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
       <c r="F32" s="153"/>
       <c r="G32" s="153"/>
       <c r="H32" s="153"/>
-      <c r="I32" s="262"/>
+      <c r="I32" s="270"/>
       <c r="J32" s="154"/>
       <c r="K32" s="154"/>
       <c r="L32" s="154"/>
@@ -23631,15 +23631,15 @@
       <c r="N32" s="141"/>
     </row>
     <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271"/>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
+      <c r="A33" s="261"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
       <c r="F33" s="153"/>
       <c r="G33" s="153"/>
       <c r="H33" s="153"/>
-      <c r="I33" s="263"/>
+      <c r="I33" s="271"/>
       <c r="J33" s="154"/>
       <c r="K33" s="154"/>
       <c r="L33" s="154"/>
@@ -23663,62 +23663,62 @@
       <c r="N34" s="144"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="284" t="s">
+      <c r="A35" s="262" t="s">
+        <v>709</v>
+      </c>
+      <c r="B35" s="223" t="s">
         <v>710</v>
       </c>
-      <c r="B35" s="220" t="s">
+      <c r="C35" s="223" t="s">
+        <v>706</v>
+      </c>
+      <c r="D35" s="223" t="s">
         <v>711</v>
       </c>
-      <c r="C35" s="220" t="s">
-        <v>707</v>
-      </c>
-      <c r="D35" s="220" t="s">
+      <c r="E35" s="227" t="s">
         <v>712</v>
-      </c>
-      <c r="E35" s="248" t="s">
-        <v>713</v>
       </c>
       <c r="F35" s="153"/>
       <c r="G35" s="153"/>
       <c r="H35" s="153"/>
-      <c r="I35" s="261"/>
+      <c r="I35" s="269"/>
       <c r="J35" s="154"/>
       <c r="K35" s="154"/>
       <c r="L35" s="154"/>
       <c r="M35" s="154"/>
-      <c r="N35" s="278"/>
+      <c r="N35" s="263"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="271"/>
-      <c r="B36" s="271"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="271"/>
-      <c r="E36" s="271"/>
+      <c r="A36" s="261"/>
+      <c r="B36" s="261"/>
+      <c r="C36" s="261"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
       <c r="F36" s="153"/>
       <c r="G36" s="153"/>
       <c r="H36" s="153"/>
-      <c r="I36" s="262"/>
+      <c r="I36" s="270"/>
       <c r="J36" s="154"/>
       <c r="K36" s="154"/>
       <c r="L36" s="154"/>
       <c r="M36" s="154"/>
-      <c r="N36" s="279"/>
+      <c r="N36" s="264"/>
     </row>
     <row r="37" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="271"/>
-      <c r="B37" s="271"/>
-      <c r="C37" s="271"/>
-      <c r="D37" s="271"/>
-      <c r="E37" s="271"/>
+      <c r="A37" s="261"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="261"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
       <c r="F37" s="153"/>
       <c r="G37" s="153"/>
       <c r="H37" s="153"/>
-      <c r="I37" s="263"/>
+      <c r="I37" s="271"/>
       <c r="J37" s="154"/>
       <c r="K37" s="154"/>
       <c r="L37" s="154"/>
       <c r="M37" s="154"/>
-      <c r="N37" s="280"/>
+      <c r="N37" s="265"/>
     </row>
     <row r="38" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="158"/>
@@ -23737,25 +23737,25 @@
       <c r="N38" s="144"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="284" t="s">
+      <c r="A39" s="262" t="s">
+        <v>713</v>
+      </c>
+      <c r="B39" s="223" t="s">
         <v>714</v>
       </c>
-      <c r="B39" s="220" t="s">
+      <c r="C39" s="223" t="s">
+        <v>706</v>
+      </c>
+      <c r="D39" s="223" t="s">
         <v>715</v>
       </c>
-      <c r="C39" s="220" t="s">
-        <v>707</v>
-      </c>
-      <c r="D39" s="220" t="s">
+      <c r="E39" s="227" t="s">
         <v>716</v>
-      </c>
-      <c r="E39" s="248" t="s">
-        <v>717</v>
       </c>
       <c r="F39" s="153"/>
       <c r="G39" s="153"/>
       <c r="H39" s="153"/>
-      <c r="I39" s="261"/>
+      <c r="I39" s="269"/>
       <c r="J39" s="154"/>
       <c r="K39" s="154"/>
       <c r="L39" s="154"/>
@@ -23763,15 +23763,15 @@
       <c r="N39" s="141"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="271"/>
-      <c r="B40" s="271"/>
-      <c r="C40" s="271"/>
-      <c r="D40" s="271"/>
-      <c r="E40" s="271"/>
+      <c r="A40" s="261"/>
+      <c r="B40" s="261"/>
+      <c r="C40" s="261"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="261"/>
       <c r="F40" s="153"/>
       <c r="G40" s="153"/>
       <c r="H40" s="153"/>
-      <c r="I40" s="262"/>
+      <c r="I40" s="270"/>
       <c r="J40" s="154"/>
       <c r="K40" s="154"/>
       <c r="L40" s="154"/>
@@ -23779,15 +23779,15 @@
       <c r="N40" s="141"/>
     </row>
     <row r="41" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="271"/>
-      <c r="B41" s="271"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
+      <c r="A41" s="261"/>
+      <c r="B41" s="261"/>
+      <c r="C41" s="261"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
       <c r="F41" s="153"/>
       <c r="G41" s="153"/>
       <c r="H41" s="153"/>
-      <c r="I41" s="263"/>
+      <c r="I41" s="271"/>
       <c r="J41" s="154"/>
       <c r="K41" s="154"/>
       <c r="L41" s="154"/>
@@ -23812,12 +23812,57 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="N35:N37"/>
     <mergeCell ref="N27:N29"/>
     <mergeCell ref="A31:A33"/>
@@ -23834,57 +23879,12 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:H6 J6:M9">
     <cfRule type="cellIs" dxfId="175" priority="73" stopIfTrue="1" operator="equal">
@@ -24442,49 +24442,49 @@
       <c r="A1" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="329" t="s">
+      <c r="B1" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="331" t="s">
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="332" t="s">
+      <c r="F1" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="334" t="s">
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="295" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="326"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="285"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="225"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="218"/>
       <c r="D2" s="218"/>
       <c r="E2" s="218"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
       <c r="I2" s="218"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="327"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="297"/>
+      <c r="M2" s="286"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="225"/>
+      <c r="B3" s="222"/>
       <c r="C3" s="218"/>
       <c r="D3" s="218"/>
       <c r="E3" s="218"/>
@@ -24495,22 +24495,22 @@
       <c r="J3" s="218"/>
       <c r="K3" s="218"/>
       <c r="L3" s="218"/>
-      <c r="M3" s="327"/>
+      <c r="M3" s="286"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="325"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="328"/>
+      <c r="A4" s="299"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="287"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="174"/>
@@ -24546,66 +24546,66 @@
       <c r="F6" s="172"/>
       <c r="G6" s="172"/>
       <c r="H6" s="172"/>
-      <c r="I6" s="317"/>
+      <c r="I6" s="300"/>
       <c r="J6" s="173"/>
       <c r="K6" s="173"/>
       <c r="L6" s="173"/>
-      <c r="M6" s="320"/>
+      <c r="M6" s="303"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="304" t="s">
-        <v>743</v>
-      </c>
-      <c r="B7" s="287" t="s">
+      <c r="A7" s="306" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7" s="330" t="s">
+        <v>717</v>
+      </c>
+      <c r="C7" s="330" t="s">
         <v>718</v>
       </c>
-      <c r="C7" s="287" t="s">
-        <v>719</v>
-      </c>
-      <c r="D7" s="336" t="s">
+      <c r="D7" s="332" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" s="330" t="s">
         <v>753</v>
-      </c>
-      <c r="E7" s="287" t="s">
-        <v>754</v>
       </c>
       <c r="F7" s="163"/>
       <c r="G7" s="164"/>
       <c r="H7" s="164"/>
-      <c r="I7" s="318"/>
+      <c r="I7" s="301"/>
       <c r="J7" s="166"/>
       <c r="K7" s="166"/>
       <c r="L7" s="166"/>
-      <c r="M7" s="321"/>
+      <c r="M7" s="304"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="303"/>
-      <c r="B8" s="288"/>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
+      <c r="A8" s="307"/>
+      <c r="B8" s="331"/>
+      <c r="C8" s="331"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
       <c r="F8" s="163"/>
       <c r="G8" s="163"/>
       <c r="H8" s="164"/>
-      <c r="I8" s="318"/>
+      <c r="I8" s="301"/>
       <c r="J8" s="166"/>
       <c r="K8" s="166"/>
       <c r="L8" s="166"/>
-      <c r="M8" s="321"/>
+      <c r="M8" s="304"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="303"/>
-      <c r="B9" s="288"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
+      <c r="A9" s="307"/>
+      <c r="B9" s="331"/>
+      <c r="C9" s="331"/>
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
       <c r="F9" s="164"/>
       <c r="G9" s="164"/>
       <c r="H9" s="164"/>
-      <c r="I9" s="319"/>
+      <c r="I9" s="302"/>
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="167"/>
-      <c r="M9" s="322"/>
+      <c r="M9" s="305"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="174"/>
@@ -24623,20 +24623,20 @@
       <c r="M10" s="178"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="304" t="s">
-        <v>743</v>
-      </c>
-      <c r="B11" s="289" t="s">
+      <c r="A11" s="306" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" s="333" t="s">
+        <v>719</v>
+      </c>
+      <c r="C11" s="333" t="s">
+        <v>718</v>
+      </c>
+      <c r="D11" s="335" t="s">
         <v>720</v>
       </c>
-      <c r="C11" s="289" t="s">
-        <v>719</v>
-      </c>
-      <c r="D11" s="291" t="s">
+      <c r="E11" s="336" t="s">
         <v>721</v>
-      </c>
-      <c r="E11" s="292" t="s">
-        <v>722</v>
       </c>
       <c r="F11" s="163"/>
       <c r="G11" s="164"/>
@@ -24645,14 +24645,14 @@
       <c r="J11" s="166"/>
       <c r="K11" s="166"/>
       <c r="L11" s="166"/>
-      <c r="M11" s="285"/>
+      <c r="M11" s="288"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="304"/>
-      <c r="B12" s="290"/>
-      <c r="C12" s="290"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
+      <c r="A12" s="306"/>
+      <c r="B12" s="334"/>
+      <c r="C12" s="334"/>
+      <c r="D12" s="334"/>
+      <c r="E12" s="334"/>
       <c r="F12" s="163"/>
       <c r="G12" s="163"/>
       <c r="H12" s="164"/>
@@ -24660,14 +24660,14 @@
       <c r="J12" s="167"/>
       <c r="K12" s="167"/>
       <c r="L12" s="167"/>
-      <c r="M12" s="286"/>
+      <c r="M12" s="289"/>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="304"/>
-      <c r="B13" s="290"/>
-      <c r="C13" s="290"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="290"/>
+      <c r="A13" s="306"/>
+      <c r="B13" s="334"/>
+      <c r="C13" s="334"/>
+      <c r="D13" s="334"/>
+      <c r="E13" s="334"/>
       <c r="F13" s="164"/>
       <c r="G13" s="164"/>
       <c r="H13" s="164"/>
@@ -24675,7 +24675,7 @@
       <c r="J13" s="166"/>
       <c r="K13" s="167"/>
       <c r="L13" s="167"/>
-      <c r="M13" s="286"/>
+      <c r="M13" s="289"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="174"/>
@@ -24693,36 +24693,36 @@
       <c r="M14" s="178"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="304" t="s">
-        <v>744</v>
-      </c>
-      <c r="B15" s="293" t="s">
+      <c r="A15" s="306" t="s">
+        <v>743</v>
+      </c>
+      <c r="B15" s="324" t="s">
+        <v>722</v>
+      </c>
+      <c r="C15" s="324" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="326" t="s">
         <v>723</v>
       </c>
-      <c r="C15" s="293" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="295" t="s">
+      <c r="E15" s="326" t="s">
         <v>724</v>
-      </c>
-      <c r="E15" s="295" t="s">
-        <v>725</v>
       </c>
       <c r="F15" s="163"/>
       <c r="G15" s="164"/>
       <c r="H15" s="164"/>
-      <c r="I15" s="238"/>
+      <c r="I15" s="254"/>
       <c r="J15" s="166"/>
       <c r="K15" s="166"/>
       <c r="L15" s="166"/>
-      <c r="M15" s="285"/>
+      <c r="M15" s="288"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="303"/>
-      <c r="B16" s="294"/>
-      <c r="C16" s="294"/>
-      <c r="D16" s="294"/>
-      <c r="E16" s="294"/>
+      <c r="A16" s="307"/>
+      <c r="B16" s="325"/>
+      <c r="C16" s="325"/>
+      <c r="D16" s="325"/>
+      <c r="E16" s="325"/>
       <c r="F16" s="163"/>
       <c r="G16" s="163"/>
       <c r="H16" s="164"/>
@@ -24730,14 +24730,14 @@
       <c r="J16" s="167"/>
       <c r="K16" s="167"/>
       <c r="L16" s="167"/>
-      <c r="M16" s="286"/>
+      <c r="M16" s="289"/>
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="303"/>
-      <c r="B17" s="294"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="294"/>
-      <c r="E17" s="294"/>
+      <c r="A17" s="307"/>
+      <c r="B17" s="325"/>
+      <c r="C17" s="325"/>
+      <c r="D17" s="325"/>
+      <c r="E17" s="325"/>
       <c r="F17" s="164"/>
       <c r="G17" s="164"/>
       <c r="H17" s="164"/>
@@ -24745,7 +24745,7 @@
       <c r="J17" s="166"/>
       <c r="K17" s="167"/>
       <c r="L17" s="167"/>
-      <c r="M17" s="286"/>
+      <c r="M17" s="289"/>
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="174"/>
@@ -24763,36 +24763,36 @@
       <c r="M18" s="178"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="304" t="s">
-        <v>745</v>
-      </c>
-      <c r="B19" s="296" t="s">
+      <c r="A19" s="306" t="s">
+        <v>744</v>
+      </c>
+      <c r="B19" s="327" t="s">
+        <v>725</v>
+      </c>
+      <c r="C19" s="327" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="329" t="s">
         <v>726</v>
       </c>
-      <c r="C19" s="296" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="298" t="s">
+      <c r="E19" s="329" t="s">
         <v>727</v>
-      </c>
-      <c r="E19" s="298" t="s">
-        <v>728</v>
       </c>
       <c r="F19" s="163"/>
       <c r="G19" s="164"/>
       <c r="H19" s="164"/>
-      <c r="I19" s="238"/>
+      <c r="I19" s="254"/>
       <c r="J19" s="166"/>
       <c r="K19" s="166"/>
       <c r="L19" s="166"/>
-      <c r="M19" s="285"/>
+      <c r="M19" s="288"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="303"/>
-      <c r="B20" s="297"/>
-      <c r="C20" s="297"/>
-      <c r="D20" s="297"/>
-      <c r="E20" s="297"/>
+      <c r="A20" s="307"/>
+      <c r="B20" s="328"/>
+      <c r="C20" s="328"/>
+      <c r="D20" s="328"/>
+      <c r="E20" s="328"/>
       <c r="F20" s="163"/>
       <c r="G20" s="163"/>
       <c r="H20" s="164"/>
@@ -24800,14 +24800,14 @@
       <c r="J20" s="167"/>
       <c r="K20" s="167"/>
       <c r="L20" s="167"/>
-      <c r="M20" s="286"/>
+      <c r="M20" s="289"/>
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="303"/>
-      <c r="B21" s="297"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="297"/>
+      <c r="A21" s="307"/>
+      <c r="B21" s="328"/>
+      <c r="C21" s="328"/>
+      <c r="D21" s="328"/>
+      <c r="E21" s="328"/>
       <c r="F21" s="164"/>
       <c r="G21" s="164"/>
       <c r="H21" s="164"/>
@@ -24815,7 +24815,7 @@
       <c r="J21" s="167"/>
       <c r="K21" s="167"/>
       <c r="L21" s="167"/>
-      <c r="M21" s="286"/>
+      <c r="M21" s="289"/>
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="174"/>
@@ -24833,36 +24833,36 @@
       <c r="M22" s="178"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="304" t="s">
-        <v>746</v>
-      </c>
-      <c r="B23" s="299" t="s">
+      <c r="A23" s="306" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="320" t="s">
+        <v>728</v>
+      </c>
+      <c r="C23" s="320" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="308" t="s">
         <v>729</v>
       </c>
-      <c r="C23" s="299" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="301" t="s">
+      <c r="E23" s="308" t="s">
         <v>730</v>
-      </c>
-      <c r="E23" s="301" t="s">
-        <v>731</v>
       </c>
       <c r="F23" s="163"/>
       <c r="G23" s="164"/>
       <c r="H23" s="164"/>
-      <c r="I23" s="238"/>
+      <c r="I23" s="254"/>
       <c r="J23" s="166"/>
       <c r="K23" s="166"/>
       <c r="L23" s="166"/>
-      <c r="M23" s="285"/>
+      <c r="M23" s="288"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="303"/>
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="300"/>
+      <c r="A24" s="307"/>
+      <c r="B24" s="309"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
       <c r="F24" s="163"/>
       <c r="G24" s="163"/>
       <c r="H24" s="164"/>
@@ -24870,14 +24870,14 @@
       <c r="J24" s="167"/>
       <c r="K24" s="167"/>
       <c r="L24" s="167"/>
-      <c r="M24" s="286"/>
+      <c r="M24" s="289"/>
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="303"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="300"/>
+      <c r="A25" s="307"/>
+      <c r="B25" s="309"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="309"/>
+      <c r="E25" s="309"/>
       <c r="F25" s="164"/>
       <c r="G25" s="164"/>
       <c r="H25" s="164"/>
@@ -24885,7 +24885,7 @@
       <c r="J25" s="167"/>
       <c r="K25" s="167"/>
       <c r="L25" s="167"/>
-      <c r="M25" s="286"/>
+      <c r="M25" s="289"/>
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="174"/>
@@ -24903,36 +24903,36 @@
       <c r="M26" s="178"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="304" t="s">
-        <v>747</v>
-      </c>
-      <c r="B27" s="311" t="s">
+      <c r="A27" s="306" t="s">
+        <v>746</v>
+      </c>
+      <c r="B27" s="323" t="s">
+        <v>731</v>
+      </c>
+      <c r="C27" s="323" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="310" t="s">
         <v>732</v>
       </c>
-      <c r="C27" s="311" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="313" t="s">
+      <c r="E27" s="310" t="s">
         <v>733</v>
-      </c>
-      <c r="E27" s="313" t="s">
-        <v>734</v>
       </c>
       <c r="F27" s="163"/>
       <c r="G27" s="164"/>
       <c r="H27" s="164"/>
-      <c r="I27" s="238"/>
+      <c r="I27" s="254"/>
       <c r="J27" s="166"/>
       <c r="K27" s="166"/>
       <c r="L27" s="166"/>
-      <c r="M27" s="285"/>
+      <c r="M27" s="288"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="303"/>
-      <c r="B28" s="312"/>
-      <c r="C28" s="312"/>
-      <c r="D28" s="312"/>
-      <c r="E28" s="312"/>
+      <c r="A28" s="307"/>
+      <c r="B28" s="311"/>
+      <c r="C28" s="311"/>
+      <c r="D28" s="311"/>
+      <c r="E28" s="311"/>
       <c r="F28" s="163"/>
       <c r="G28" s="163"/>
       <c r="H28" s="164"/>
@@ -24940,14 +24940,14 @@
       <c r="J28" s="166"/>
       <c r="K28" s="166"/>
       <c r="L28" s="166"/>
-      <c r="M28" s="286"/>
+      <c r="M28" s="289"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="303"/>
-      <c r="B29" s="312"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
+      <c r="A29" s="307"/>
+      <c r="B29" s="311"/>
+      <c r="C29" s="311"/>
+      <c r="D29" s="311"/>
+      <c r="E29" s="311"/>
       <c r="F29" s="164"/>
       <c r="G29" s="164"/>
       <c r="H29" s="164"/>
@@ -24955,7 +24955,7 @@
       <c r="J29" s="167"/>
       <c r="K29" s="167"/>
       <c r="L29" s="167"/>
-      <c r="M29" s="286"/>
+      <c r="M29" s="289"/>
     </row>
     <row r="30" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="174"/>
@@ -24973,36 +24973,36 @@
       <c r="M30" s="178"/>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="304" t="s">
-        <v>748</v>
-      </c>
-      <c r="B31" s="314" t="s">
+      <c r="A31" s="306" t="s">
+        <v>747</v>
+      </c>
+      <c r="B31" s="312" t="s">
+        <v>734</v>
+      </c>
+      <c r="C31" s="312" t="s">
+        <v>754</v>
+      </c>
+      <c r="D31" s="314" t="s">
         <v>735</v>
       </c>
-      <c r="C31" s="314" t="s">
-        <v>755</v>
-      </c>
-      <c r="D31" s="316" t="s">
+      <c r="E31" s="314" t="s">
         <v>736</v>
-      </c>
-      <c r="E31" s="316" t="s">
-        <v>737</v>
       </c>
       <c r="F31" s="168"/>
       <c r="G31" s="168"/>
       <c r="H31" s="168"/>
-      <c r="I31" s="238"/>
+      <c r="I31" s="254"/>
       <c r="J31" s="169"/>
       <c r="K31" s="169"/>
       <c r="L31" s="169"/>
-      <c r="M31" s="285"/>
+      <c r="M31" s="288"/>
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="303"/>
-      <c r="B32" s="315"/>
-      <c r="C32" s="315"/>
-      <c r="D32" s="315"/>
-      <c r="E32" s="315"/>
+      <c r="A32" s="307"/>
+      <c r="B32" s="313"/>
+      <c r="C32" s="313"/>
+      <c r="D32" s="313"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="168"/>
       <c r="G32" s="168"/>
       <c r="H32" s="168"/>
@@ -25010,14 +25010,14 @@
       <c r="J32" s="169"/>
       <c r="K32" s="169"/>
       <c r="L32" s="169"/>
-      <c r="M32" s="286"/>
+      <c r="M32" s="289"/>
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="303"/>
-      <c r="B33" s="315"/>
-      <c r="C33" s="315"/>
-      <c r="D33" s="315"/>
-      <c r="E33" s="315"/>
+      <c r="A33" s="307"/>
+      <c r="B33" s="313"/>
+      <c r="C33" s="313"/>
+      <c r="D33" s="313"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="168"/>
       <c r="G33" s="168"/>
       <c r="H33" s="168"/>
@@ -25025,7 +25025,7 @@
       <c r="J33" s="169"/>
       <c r="K33" s="169"/>
       <c r="L33" s="169"/>
-      <c r="M33" s="286"/>
+      <c r="M33" s="289"/>
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="174"/>
@@ -25043,36 +25043,36 @@
       <c r="M34" s="178"/>
     </row>
     <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="302" t="s">
-        <v>749</v>
-      </c>
-      <c r="B35" s="305" t="s">
+      <c r="A35" s="321" t="s">
+        <v>748</v>
+      </c>
+      <c r="B35" s="322" t="s">
+        <v>737</v>
+      </c>
+      <c r="C35" s="322" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="315" t="s">
         <v>738</v>
       </c>
-      <c r="C35" s="305" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="307" t="s">
+      <c r="E35" s="315" t="s">
         <v>739</v>
-      </c>
-      <c r="E35" s="307" t="s">
-        <v>740</v>
       </c>
       <c r="F35" s="168"/>
       <c r="G35" s="168"/>
       <c r="H35" s="168"/>
-      <c r="I35" s="238"/>
+      <c r="I35" s="254"/>
       <c r="J35" s="169"/>
       <c r="K35" s="169"/>
       <c r="L35" s="169"/>
-      <c r="M35" s="285"/>
+      <c r="M35" s="288"/>
     </row>
     <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="303"/>
-      <c r="B36" s="306"/>
-      <c r="C36" s="306"/>
-      <c r="D36" s="306"/>
-      <c r="E36" s="306"/>
+      <c r="A36" s="307"/>
+      <c r="B36" s="316"/>
+      <c r="C36" s="316"/>
+      <c r="D36" s="316"/>
+      <c r="E36" s="316"/>
       <c r="F36" s="168"/>
       <c r="G36" s="168"/>
       <c r="H36" s="168"/>
@@ -25080,14 +25080,14 @@
       <c r="J36" s="169"/>
       <c r="K36" s="169"/>
       <c r="L36" s="169"/>
-      <c r="M36" s="286"/>
+      <c r="M36" s="289"/>
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="303"/>
-      <c r="B37" s="306"/>
-      <c r="C37" s="306"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="306"/>
+      <c r="A37" s="307"/>
+      <c r="B37" s="316"/>
+      <c r="C37" s="316"/>
+      <c r="D37" s="316"/>
+      <c r="E37" s="316"/>
       <c r="F37" s="168"/>
       <c r="G37" s="168"/>
       <c r="H37" s="168"/>
@@ -25095,7 +25095,7 @@
       <c r="J37" s="169"/>
       <c r="K37" s="169"/>
       <c r="L37" s="169"/>
-      <c r="M37" s="286"/>
+      <c r="M37" s="289"/>
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="174"/>
@@ -25113,36 +25113,36 @@
       <c r="M38" s="178"/>
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="304" t="s">
-        <v>750</v>
-      </c>
-      <c r="B39" s="308" t="s">
+      <c r="A39" s="306" t="s">
+        <v>749</v>
+      </c>
+      <c r="B39" s="317" t="s">
+        <v>740</v>
+      </c>
+      <c r="C39" s="317" t="s">
+        <v>755</v>
+      </c>
+      <c r="D39" s="319" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="308" t="s">
-        <v>756</v>
-      </c>
-      <c r="D39" s="310" t="s">
-        <v>742</v>
-      </c>
-      <c r="E39" s="310" t="s">
-        <v>740</v>
+      <c r="E39" s="319" t="s">
+        <v>739</v>
       </c>
       <c r="F39" s="170"/>
       <c r="G39" s="168"/>
       <c r="H39" s="168"/>
-      <c r="I39" s="238"/>
+      <c r="I39" s="254"/>
       <c r="J39" s="169"/>
       <c r="K39" s="169"/>
       <c r="L39" s="169"/>
-      <c r="M39" s="285"/>
+      <c r="M39" s="288"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="303"/>
-      <c r="B40" s="309"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
+      <c r="A40" s="307"/>
+      <c r="B40" s="318"/>
+      <c r="C40" s="318"/>
+      <c r="D40" s="318"/>
+      <c r="E40" s="318"/>
       <c r="F40" s="170"/>
       <c r="G40" s="168"/>
       <c r="H40" s="168"/>
@@ -25150,14 +25150,14 @@
       <c r="J40" s="169"/>
       <c r="K40" s="169"/>
       <c r="L40" s="169"/>
-      <c r="M40" s="286"/>
+      <c r="M40" s="289"/>
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="303"/>
-      <c r="B41" s="309"/>
-      <c r="C41" s="309"/>
-      <c r="D41" s="309"/>
-      <c r="E41" s="309"/>
+      <c r="A41" s="307"/>
+      <c r="B41" s="318"/>
+      <c r="C41" s="318"/>
+      <c r="D41" s="318"/>
+      <c r="E41" s="318"/>
       <c r="F41" s="170"/>
       <c r="G41" s="168"/>
       <c r="H41" s="168"/>
@@ -25165,7 +25165,7 @@
       <c r="J41" s="169"/>
       <c r="K41" s="169"/>
       <c r="L41" s="169"/>
-      <c r="M41" s="286"/>
+      <c r="M41" s="289"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="174"/>
@@ -25184,6 +25184,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="M1:M4"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="M19:M21"/>
@@ -25199,68 +25260,7 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I39:I41"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 J6:L9 G6:H6">
     <cfRule type="cellIs" dxfId="71" priority="1" stopIfTrue="1" operator="equal">
